--- a/Metadata/InstrumentMetadata_Jericoacoara.xlsx
+++ b/Metadata/InstrumentMetadata_Jericoacoara.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="53">
   <si>
     <t>Site</t>
   </si>
@@ -245,8 +245,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="645">
+  <cellStyleXfs count="647">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -905,7 +907,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="645">
+  <cellStyles count="647">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1228,6 +1230,7 @@
     <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1550,6 +1553,7 @@
     <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1882,9 +1886,9 @@
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="A1:O114"/>
+      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1974,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -2021,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
       <c r="K3" s="5">
         <v>-0.05</v>
@@ -2068,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -2115,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
@@ -2162,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -2209,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="K7" s="5">
         <v>-0.05</v>
@@ -2256,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -2303,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>14</v>
@@ -2350,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>25</v>
@@ -2397,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>25</v>
@@ -2444,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>26</v>
@@ -2491,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>26</v>
@@ -3525,7 +3529,7 @@
         <v>-0.33500000000000002</v>
       </c>
       <c r="I35" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
@@ -3572,7 +3576,7 @@
         <v>-0.33500000000000002</v>
       </c>
       <c r="I36" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J36" t="s">
         <v>16</v>
@@ -3619,7 +3623,7 @@
         <v>-0.33500000000000002</v>
       </c>
       <c r="I37" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
@@ -3666,7 +3670,7 @@
         <v>-0.33500000000000002</v>
       </c>
       <c r="I38" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -3713,7 +3717,7 @@
         <v>-0.33500000000000002</v>
       </c>
       <c r="I39" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
@@ -3760,7 +3764,7 @@
         <v>-0.33500000000000002</v>
       </c>
       <c r="I40" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J40" t="s">
         <v>16</v>
@@ -3807,7 +3811,7 @@
         <v>-0.33500000000000002</v>
       </c>
       <c r="I41" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J41" t="s">
         <v>16</v>
@@ -3854,7 +3858,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="I42" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J42" t="s">
         <v>16</v>
@@ -3901,7 +3905,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="I43" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J43" t="s">
         <v>16</v>
@@ -3948,7 +3952,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="I44" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J44" t="s">
         <v>16</v>
@@ -3995,7 +3999,7 @@
         <v>-0.26500000000000001</v>
       </c>
       <c r="I45" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J45" t="s">
         <v>16</v>
@@ -4042,7 +4046,7 @@
         <v>-0.26500000000000001</v>
       </c>
       <c r="I46" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J46" t="s">
         <v>16</v>
@@ -4089,7 +4093,7 @@
         <v>-0.26500000000000001</v>
       </c>
       <c r="I47" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J47" t="s">
         <v>16</v>
@@ -4136,7 +4140,7 @@
         <v>-0.26500000000000001</v>
       </c>
       <c r="I48" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J48" t="s">
         <v>16</v>
@@ -4183,7 +4187,7 @@
         <v>-0.26500000000000001</v>
       </c>
       <c r="I49" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J49" t="s">
         <v>16</v>
@@ -4230,7 +4234,7 @@
         <v>-0.26500000000000001</v>
       </c>
       <c r="I50" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J50" t="s">
         <v>16</v>
@@ -4277,7 +4281,7 @@
         <v>-0.26500000000000001</v>
       </c>
       <c r="I51" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J51" t="s">
         <v>16</v>
@@ -4324,7 +4328,7 @@
         <v>-0.155</v>
       </c>
       <c r="I52" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J52" t="s">
         <v>16</v>
@@ -4371,7 +4375,7 @@
         <v>-0.155</v>
       </c>
       <c r="I53" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J53" t="s">
         <v>16</v>
@@ -4418,7 +4422,7 @@
         <v>-0.155</v>
       </c>
       <c r="I54" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J54" t="s">
         <v>16</v>
@@ -4465,7 +4469,7 @@
         <v>-0.38500000000000001</v>
       </c>
       <c r="I55" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J55" t="s">
         <v>16</v>
@@ -4512,7 +4516,7 @@
         <v>-0.38500000000000001</v>
       </c>
       <c r="I56" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J56" t="s">
         <v>16</v>
@@ -4559,7 +4563,7 @@
         <v>-0.22500000000000001</v>
       </c>
       <c r="I57" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
@@ -4606,7 +4610,7 @@
         <v>-0.22500000000000001</v>
       </c>
       <c r="I58" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
@@ -4653,7 +4657,7 @@
         <v>-0.22500000000000001</v>
       </c>
       <c r="I59" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
@@ -4700,7 +4704,7 @@
         <v>-0.22500000000000001</v>
       </c>
       <c r="I60" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
@@ -4747,7 +4751,7 @@
         <v>-0.22500000000000001</v>
       </c>
       <c r="I61" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
@@ -4794,7 +4798,7 @@
         <v>-0.22500000000000001</v>
       </c>
       <c r="I62" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
@@ -4841,7 +4845,7 @@
         <v>-0.22500000000000001</v>
       </c>
       <c r="I63" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
@@ -4888,7 +4892,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I64" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J64" t="s">
         <v>26</v>
@@ -4935,7 +4939,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I65" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J65" t="s">
         <v>26</v>
@@ -4982,7 +4986,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I66" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J66" t="s">
         <v>26</v>
@@ -5029,7 +5033,7 @@
         <v>-0.155</v>
       </c>
       <c r="I67" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
@@ -5076,7 +5080,7 @@
         <v>-0.155</v>
       </c>
       <c r="I68" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J68" t="s">
         <v>14</v>
@@ -5123,7 +5127,7 @@
         <v>-0.155</v>
       </c>
       <c r="I69" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
@@ -5170,7 +5174,7 @@
         <v>-0.155</v>
       </c>
       <c r="I70" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J70" t="s">
         <v>14</v>
@@ -5217,7 +5221,7 @@
         <v>-0.155</v>
       </c>
       <c r="I71" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J71" t="s">
         <v>14</v>
@@ -5264,7 +5268,7 @@
         <v>-0.155</v>
       </c>
       <c r="I72" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J72" t="s">
         <v>14</v>
@@ -5311,7 +5315,7 @@
         <v>-0.155</v>
       </c>
       <c r="I73" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J73" t="s">
         <v>14</v>
@@ -5358,7 +5362,7 @@
         <v>8.0999999999999989E-2</v>
       </c>
       <c r="I74" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J74" t="s">
         <v>26</v>
@@ -5405,7 +5409,7 @@
         <v>8.0999999999999989E-2</v>
       </c>
       <c r="I75" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J75" t="s">
         <v>26</v>
@@ -5452,7 +5456,7 @@
         <v>8.0999999999999989E-2</v>
       </c>
       <c r="I76" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J76" t="s">
         <v>26</v>
@@ -5499,7 +5503,7 @@
         <v>-0.32500000000000001</v>
       </c>
       <c r="I77" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J77" t="s">
         <v>14</v>
@@ -5546,7 +5550,7 @@
         <v>-0.32500000000000001</v>
       </c>
       <c r="I78" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J78" t="s">
         <v>14</v>
@@ -5593,7 +5597,7 @@
         <v>-0.32500000000000001</v>
       </c>
       <c r="I79" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J79" t="s">
         <v>14</v>
@@ -5640,7 +5644,7 @@
         <v>-0.32500000000000001</v>
       </c>
       <c r="I80" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J80" t="s">
         <v>14</v>
@@ -5687,7 +5691,7 @@
         <v>-0.32500000000000001</v>
       </c>
       <c r="I81" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J81" t="s">
         <v>14</v>
@@ -5734,7 +5738,7 @@
         <v>-0.32500000000000001</v>
       </c>
       <c r="I82" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J82" t="s">
         <v>14</v>
@@ -5781,7 +5785,7 @@
         <v>-0.32500000000000001</v>
       </c>
       <c r="I83" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J83" t="s">
         <v>14</v>
@@ -5828,7 +5832,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I84" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J84" t="s">
         <v>26</v>
@@ -5875,7 +5879,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I85" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J85" t="s">
         <v>26</v>
@@ -5922,7 +5926,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I86" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J86" t="s">
         <v>26</v>
@@ -5969,7 +5973,7 @@
         <v>-0.28500000000000003</v>
       </c>
       <c r="I87" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J87" t="s">
         <v>14</v>
@@ -6016,7 +6020,7 @@
         <v>-0.28500000000000003</v>
       </c>
       <c r="I88" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
@@ -6063,7 +6067,7 @@
         <v>-0.28500000000000003</v>
       </c>
       <c r="I89" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
@@ -6110,7 +6114,7 @@
         <v>-0.28500000000000003</v>
       </c>
       <c r="I90" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
@@ -6157,7 +6161,7 @@
         <v>-0.28500000000000003</v>
       </c>
       <c r="I91" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
@@ -6204,7 +6208,7 @@
         <v>-0.28500000000000003</v>
       </c>
       <c r="I92" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
@@ -6251,7 +6255,7 @@
         <v>-0.28500000000000003</v>
       </c>
       <c r="I93" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
@@ -6298,7 +6302,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I94" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J94" t="s">
         <v>26</v>
@@ -6345,7 +6349,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I95" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J95" t="s">
         <v>26</v>
@@ -6392,7 +6396,7 @@
         <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I96" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J96" t="s">
         <v>26</v>
@@ -6439,7 +6443,7 @@
         <v>-0.155</v>
       </c>
       <c r="I97" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J97" t="s">
         <v>16</v>
@@ -6486,7 +6490,7 @@
         <v>-0.155</v>
       </c>
       <c r="I98" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J98" t="s">
         <v>16</v>
@@ -6533,7 +6537,7 @@
         <v>-0.155</v>
       </c>
       <c r="I99" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J99" t="s">
         <v>16</v>
@@ -6580,7 +6584,7 @@
         <v>-0.155</v>
       </c>
       <c r="I100" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J100" t="s">
         <v>16</v>
@@ -6627,7 +6631,7 @@
         <v>-0.155</v>
       </c>
       <c r="I101" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J101" t="s">
         <v>16</v>
@@ -6674,7 +6678,7 @@
         <v>-0.155</v>
       </c>
       <c r="I102" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J102" t="s">
         <v>16</v>
@@ -6721,7 +6725,7 @@
         <v>-0.155</v>
       </c>
       <c r="I103" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J103" t="s">
         <v>16</v>
@@ -6768,7 +6772,7 @@
         <v>-0.155</v>
       </c>
       <c r="I104" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J104" t="s">
         <v>16</v>
@@ -6815,7 +6819,7 @@
         <v>-0.155</v>
       </c>
       <c r="I105" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J105" t="s">
         <v>16</v>
@@ -6862,7 +6866,7 @@
         <v>-0.155</v>
       </c>
       <c r="I106" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J106" t="s">
         <v>16</v>
@@ -6909,7 +6913,7 @@
         <v>-0.38500000000000001</v>
       </c>
       <c r="I107" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J107" t="s">
         <v>16</v>
@@ -6956,7 +6960,7 @@
         <v>-0.38500000000000001</v>
       </c>
       <c r="I108" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J108" t="s">
         <v>16</v>
@@ -7003,7 +7007,7 @@
         <v>-0.38500000000000001</v>
       </c>
       <c r="I109" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J109" t="s">
         <v>16</v>
@@ -7050,7 +7054,7 @@
         <v>-0.38500000000000001</v>
       </c>
       <c r="I110" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J110" t="s">
         <v>16</v>
@@ -7097,7 +7101,7 @@
         <v>-0.38500000000000001</v>
       </c>
       <c r="I111" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J111" t="s">
         <v>16</v>
@@ -7144,7 +7148,7 @@
         <v>-0.155</v>
       </c>
       <c r="I112" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J112" t="s">
         <v>16</v>
@@ -7191,7 +7195,7 @@
         <v>-0.155</v>
       </c>
       <c r="I113" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J113" t="s">
         <v>16</v>
@@ -7238,7 +7242,7 @@
         <v>-0.155</v>
       </c>
       <c r="I114" s="4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J114" t="s">
         <v>16</v>

--- a/Metadata/InstrumentMetadata_Jericoacoara.xlsx
+++ b/Metadata/InstrumentMetadata_Jericoacoara.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="25800" yWindow="0" windowWidth="37320" windowHeight="10860" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="53">
   <si>
     <t>Site</t>
   </si>
@@ -1883,12 +1883,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2004,19 +2004,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C3" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.45</v>
       </c>
       <c r="D3" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -2028,13 +2028,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="5">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4">
         <v>-0.05</v>
       </c>
       <c r="L3" s="4">
-        <v>-0.73</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
         <v>0</v>
@@ -2042,8 +2042,8 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>51</v>
+      <c r="O3" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2051,34 +2051,34 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>41961</v>
+        <v>41956</v>
       </c>
       <c r="C4" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.45</v>
       </c>
       <c r="D4" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="5">
-        <v>-0.05</v>
+        <v>0.01</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -2098,34 +2098,34 @@
         <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>41963</v>
+        <v>41956</v>
       </c>
       <c r="C5" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.45</v>
       </c>
       <c r="D5" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>3.0150000000000001</v>
       </c>
       <c r="H5" s="4">
-        <v>0</v>
+        <v>3.0289999999999999</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="5">
-        <v>-0.05</v>
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="N5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -2154,28 +2154,28 @@
         <v>0.54236111111111118</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4">
-        <v>0</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="H6" s="4">
-        <v>0</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
+        <v>0.01</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
       </c>
       <c r="K6" s="4">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="M6" s="4">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -2192,37 +2192,37 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C7" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.45</v>
       </c>
       <c r="D7" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>1.917</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="5">
-        <v>-0.05</v>
+        <v>0.01</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>0</v>
+        <v>-0.74</v>
       </c>
       <c r="M7" s="4">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2239,19 +2239,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="2">
-        <v>41961</v>
+        <v>41956</v>
       </c>
       <c r="C8" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.45</v>
       </c>
       <c r="D8" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -2262,11 +2262,11 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="5">
-        <v>-0.125</v>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
@@ -2277,8 +2277,8 @@
       <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>50</v>
+      <c r="O8" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2286,37 +2286,37 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>41963</v>
+        <v>41956</v>
       </c>
       <c r="C9" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.45</v>
       </c>
       <c r="D9" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="5">
-        <v>-0.125</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>-0.54</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2333,37 +2333,37 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>41961</v>
+        <v>41956</v>
       </c>
       <c r="C10" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.45</v>
       </c>
       <c r="D10" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="H10" s="4">
-        <v>0</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>25</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
       </c>
       <c r="K10" s="4">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>-0.73</v>
+        <v>-0.9</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -2371,8 +2371,8 @@
       <c r="N10" s="4">
         <v>0</v>
       </c>
-      <c r="O10" s="9" t="s">
-        <v>25</v>
+      <c r="O10" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2380,37 +2380,37 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>41963</v>
+        <v>41956</v>
       </c>
       <c r="C11" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.45</v>
       </c>
       <c r="D11" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>25</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
       </c>
       <c r="K11" s="4">
-        <v>-0.2</v>
-      </c>
-      <c r="L11" s="5">
-        <v>-0.73</v>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>-0.74</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -2418,8 +2418,8 @@
       <c r="N11" s="4">
         <v>0</v>
       </c>
-      <c r="O11" s="9" t="s">
-        <v>25</v>
+      <c r="O11" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2427,37 +2427,37 @@
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>41961</v>
+        <v>41956</v>
       </c>
       <c r="C12" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.45</v>
       </c>
       <c r="D12" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>26</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
       </c>
       <c r="K12" s="4">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>-0.73</v>
+        <v>-0.16</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -2465,8 +2465,8 @@
       <c r="N12" s="4">
         <v>0</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>26</v>
+      <c r="O12" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2474,37 +2474,37 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>41963</v>
+        <v>41956</v>
       </c>
       <c r="C13" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.45</v>
       </c>
       <c r="D13" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G13" s="4">
-        <v>0</v>
+        <v>-0.155</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>-0.155</v>
       </c>
       <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>26</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
       </c>
       <c r="K13" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="L13" s="5">
-        <v>-0.73</v>
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -2512,8 +2512,8 @@
       <c r="N13" s="4">
         <v>0</v>
       </c>
-      <c r="O13" s="9" t="s">
-        <v>26</v>
+      <c r="O13" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2527,25 +2527,25 @@
         <v>0.45</v>
       </c>
       <c r="D14" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G14" s="4">
-        <v>0.96599999999999997</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H14" s="4">
-        <v>0.98</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I14" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -2559,8 +2559,8 @@
       <c r="N14" s="4">
         <v>0</v>
       </c>
-      <c r="O14" s="10" t="s">
-        <v>37</v>
+      <c r="O14" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2568,37 +2568,37 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C15" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.45</v>
       </c>
       <c r="D15" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G15" s="4">
-        <v>0.97599999999999998</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H15" s="4">
-        <v>0.98599999999999999</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I15" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
@@ -2606,8 +2606,8 @@
       <c r="N15" s="4">
         <v>0</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>37</v>
+      <c r="O15" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2615,37 +2615,37 @@
         <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>41961</v>
+        <v>41956</v>
       </c>
       <c r="C16" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.45</v>
       </c>
       <c r="D16" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.4916666666666667</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G16" s="4">
-        <v>0.97299999999999998</v>
+        <v>-0.155</v>
       </c>
       <c r="H16" s="4">
-        <v>0.97299999999999998</v>
+        <v>-0.155</v>
       </c>
       <c r="I16" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>0</v>
+        <v>-0.74</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
@@ -2653,8 +2653,8 @@
       <c r="N16" s="4">
         <v>0</v>
       </c>
-      <c r="O16" s="10" t="s">
-        <v>37</v>
+      <c r="O16" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2662,37 +2662,37 @@
         <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>41963</v>
+        <v>41956</v>
       </c>
       <c r="C17" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D17" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G17" s="4">
-        <v>0.98099999999999998</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H17" s="4">
-        <v>0.95499999999999996</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I17" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>0</v>
+        <v>-0.54</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2712,43 +2712,43 @@
         <v>41956</v>
       </c>
       <c r="C18" s="3">
-        <v>0.45</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D18" s="3">
         <v>0.54236111111111118</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G18" s="4">
-        <v>3.0150000000000001</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="H18" s="4">
-        <v>3.0289999999999999</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="I18" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2756,46 +2756,46 @@
         <v>13</v>
       </c>
       <c r="B19" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C19" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D19" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G19" s="4">
-        <v>2.5870000000000002</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H19" s="4">
-        <v>2.597</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I19" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>0</v>
+        <v>-0.74</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2803,46 +2803,46 @@
         <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>41961</v>
+        <v>41956</v>
       </c>
       <c r="C20" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D20" s="3">
-        <v>0.47569444444444442</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G20" s="4">
-        <v>2.5750000000000002</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H20" s="4">
-        <v>2.5750000000000002</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I20" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <v>1</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2850,46 +2850,46 @@
         <v>13</v>
       </c>
       <c r="B21" s="2">
-        <v>41961</v>
+        <v>41956</v>
       </c>
       <c r="C21" s="3">
-        <v>0.4826388888888889</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D21" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G21" s="4">
-        <v>0.44500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H21" s="4">
-        <v>0.44500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I21" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>-1.66</v>
+        <v>0</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <v>1</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2897,31 +2897,31 @@
         <v>13</v>
       </c>
       <c r="B22" s="2">
-        <v>41963</v>
+        <v>41956</v>
       </c>
       <c r="C22" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D22" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G22" s="4">
-        <v>2.5950000000000002</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H22" s="4">
-        <v>2.569</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I22" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -2933,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <v>1</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2947,34 +2947,34 @@
         <v>41956</v>
       </c>
       <c r="C23" s="3">
-        <v>0.45</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D23" s="3">
         <v>0.54236111111111118</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G23" s="4">
-        <v>0.48399999999999999</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H23" s="4">
-        <v>0.47399999999999998</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I23" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>14</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>0.97</v>
+        <v>0.22</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
@@ -2982,8 +2982,8 @@
       <c r="N23" s="4">
         <v>0</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2991,37 +2991,37 @@
         <v>13</v>
       </c>
       <c r="B24" s="2">
-        <v>41957</v>
+        <v>41956</v>
       </c>
       <c r="C24" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.50069444444444444</v>
       </c>
       <c r="D24" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.54236111111111118</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G24" s="4">
-        <v>0.46800000000000003</v>
+        <v>-0.155</v>
       </c>
       <c r="H24" s="4">
-        <v>0.47499999999999998</v>
+        <v>-0.155</v>
       </c>
       <c r="I24" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>0.98</v>
+        <v>-0.74</v>
       </c>
       <c r="M24" s="4">
         <v>0</v>
@@ -3029,8 +3029,8 @@
       <c r="N24" s="4">
         <v>0</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
+      <c r="O24" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -3038,37 +3038,37 @@
         <v>13</v>
       </c>
       <c r="B25" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C25" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D25" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G25" s="4">
-        <v>0.44500000000000001</v>
+        <v>0</v>
       </c>
       <c r="H25" s="4">
-        <v>0.44500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I25" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="5">
+        <v>-0.05</v>
       </c>
       <c r="L25" s="4">
-        <v>0.97399999999999998</v>
+        <v>-0.73</v>
       </c>
       <c r="M25" s="4">
         <v>0</v>
@@ -3076,8 +3076,8 @@
       <c r="N25" s="4">
         <v>0</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>36</v>
+      <c r="O25" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -3085,37 +3085,37 @@
         <v>13</v>
       </c>
       <c r="B26" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C26" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D26" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G26" s="4">
-        <v>0.45400000000000001</v>
+        <v>0</v>
       </c>
       <c r="H26" s="4">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="I26" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="5">
+        <v>-0.05</v>
       </c>
       <c r="L26" s="4">
-        <v>0.97399999999999998</v>
+        <v>0</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
@@ -3123,8 +3123,8 @@
       <c r="N26" s="4">
         <v>0</v>
       </c>
-      <c r="O26" s="7" t="s">
-        <v>36</v>
+      <c r="O26" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -3132,25 +3132,25 @@
         <v>13</v>
       </c>
       <c r="B27" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C27" s="3">
-        <v>0.45</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D27" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27" s="4">
-        <v>1.917</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="H27" s="4">
-        <v>1.9350000000000001</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="I27" s="4">
         <v>0.01</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>-0.74</v>
+        <v>0</v>
       </c>
       <c r="M27" s="4">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -3191,13 +3191,13 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="4">
-        <v>1.7749999999999999</v>
+        <v>2.5870000000000002</v>
       </c>
       <c r="H28" s="4">
-        <v>1.75</v>
+        <v>2.597</v>
       </c>
       <c r="I28" s="4">
         <v>0.01</v>
@@ -3209,16 +3209,16 @@
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>-0.73</v>
+        <v>0</v>
       </c>
       <c r="M28" s="4">
         <v>0</v>
       </c>
       <c r="N28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -3226,25 +3226,25 @@
         <v>13</v>
       </c>
       <c r="B29" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C29" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D29" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G29" s="4">
-        <v>1.7809999999999999</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="H29" s="4">
-        <v>1.7809999999999999</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="I29" s="4">
         <v>0.01</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>-0.73</v>
+        <v>0.98</v>
       </c>
       <c r="M29" s="4">
         <v>0</v>
@@ -3264,8 +3264,8 @@
       <c r="N29" s="4">
         <v>0</v>
       </c>
-      <c r="O29" s="10" t="s">
-        <v>38</v>
+      <c r="O29" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -3273,13 +3273,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C30" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D30" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>33</v>
@@ -3288,10 +3288,10 @@
         <v>11</v>
       </c>
       <c r="G30" s="4">
-        <v>1.776</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="H30" s="4">
-        <v>1.7370000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="I30" s="4">
         <v>0.01</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>-0.748</v>
+        <v>-0.73</v>
       </c>
       <c r="M30" s="4">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C31" s="3">
-        <v>0.45</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D31" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>35</v>
@@ -3373,31 +3373,31 @@
         <v>0.43958333333333338</v>
       </c>
       <c r="D32" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G32" s="4">
-        <v>0</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H32" s="4">
-        <v>0</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
       </c>
       <c r="K32" s="4">
         <v>0</v>
       </c>
-      <c r="L32" s="4">
-        <v>0</v>
+      <c r="L32">
+        <v>-0.53</v>
       </c>
       <c r="M32" s="4">
         <v>0</v>
@@ -3405,8 +3405,8 @@
       <c r="N32" s="4">
         <v>0</v>
       </c>
-      <c r="O32" s="7" t="s">
-        <v>52</v>
+      <c r="O32" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -3414,37 +3414,37 @@
         <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C33" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D33" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G33" s="4">
-        <v>0</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="H33" s="4">
-        <v>0</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
       </c>
       <c r="K33" s="4">
         <v>0</v>
       </c>
-      <c r="L33" s="4">
-        <v>0</v>
+      <c r="L33">
+        <v>-0.89</v>
       </c>
       <c r="M33" s="4">
         <v>0</v>
@@ -3452,8 +3452,8 @@
       <c r="N33" s="4">
         <v>0</v>
       </c>
-      <c r="O33" s="7" t="s">
-        <v>52</v>
+      <c r="O33" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3461,37 +3461,37 @@
         <v>13</v>
       </c>
       <c r="B34" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C34" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D34" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G34" s="4">
-        <v>0</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H34" s="4">
-        <v>0</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>14</v>
       </c>
       <c r="K34" s="4">
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="M34" s="4">
         <v>0</v>
@@ -3499,8 +3499,8 @@
       <c r="N34" s="4">
         <v>0</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>52</v>
+      <c r="O34" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3508,37 +3508,37 @@
         <v>13</v>
       </c>
       <c r="B35" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C35" s="3">
-        <v>0.45</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D35" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G35" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.155</v>
       </c>
       <c r="H35" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.155</v>
       </c>
       <c r="I35" s="4">
         <v>1E-3</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K35" s="4">
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>-0.54</v>
+        <v>0</v>
       </c>
       <c r="M35" s="4">
         <v>0</v>
@@ -3546,8 +3546,8 @@
       <c r="N35" s="4">
         <v>0</v>
       </c>
-      <c r="O35" s="10" t="s">
-        <v>47</v>
+      <c r="O35" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3555,37 +3555,37 @@
         <v>13</v>
       </c>
       <c r="B36" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C36" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D36" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G36" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H36" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I36" s="4">
         <v>1E-3</v>
       </c>
       <c r="J36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>-0.54</v>
+        <v>0</v>
       </c>
       <c r="M36" s="4">
         <v>0</v>
@@ -3593,8 +3593,8 @@
       <c r="N36" s="4">
         <v>0</v>
       </c>
-      <c r="O36" s="10" t="s">
-        <v>47</v>
+      <c r="O36" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3614,34 +3614,34 @@
         <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G37" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H37" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I37" s="4">
         <v>1E-3</v>
       </c>
       <c r="J37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
       </c>
-      <c r="L37">
-        <v>-0.53</v>
+      <c r="L37" s="4">
+        <v>0.22</v>
       </c>
       <c r="M37" s="4">
         <v>0</v>
       </c>
       <c r="N37" s="4">
-        <v>0</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3652,22 +3652,22 @@
         <v>41957</v>
       </c>
       <c r="C38" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D38" s="3">
-        <v>0.52986111111111101</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G38" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.155</v>
       </c>
       <c r="H38" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.155</v>
       </c>
       <c r="I38" s="4">
         <v>1E-3</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>-0.53</v>
+        <v>-0.73</v>
       </c>
       <c r="M38" s="4">
         <v>0</v>
@@ -3687,8 +3687,8 @@
       <c r="N38" s="4">
         <v>0</v>
       </c>
-      <c r="O38" s="10" t="s">
-        <v>47</v>
+      <c r="O38" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3699,22 +3699,22 @@
         <v>41957</v>
       </c>
       <c r="C39" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.43958333333333338</v>
       </c>
       <c r="D39" s="3">
-        <v>0.57916666666666705</v>
+        <v>0.48125000000000001</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H39" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I39" s="4">
         <v>1E-3</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-0.53</v>
+        <v>-0.73</v>
       </c>
       <c r="M39" s="4">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3746,10 +3746,10 @@
         <v>41957</v>
       </c>
       <c r="C40" s="3">
-        <v>0.594444444444444</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D40" s="3">
-        <v>0.63611111111111096</v>
+        <v>0.52986111111111101</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>34</v>
@@ -3793,22 +3793,22 @@
         <v>41957</v>
       </c>
       <c r="C41" s="3">
-        <v>0.64305555555555605</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D41" s="3">
-        <v>0.68472222222222201</v>
+        <v>0.52986111111111101</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G41" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="H41" s="4">
-        <v>-0.33500000000000002</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="I41" s="4">
         <v>1E-3</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <v>-0.53</v>
+        <v>-0.89</v>
       </c>
       <c r="M41" s="4">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3837,37 +3837,37 @@
         <v>13</v>
       </c>
       <c r="B42" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C42" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D42" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.52986111111111101</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H42" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I42" s="4">
         <v>1E-3</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K42" s="4">
         <v>0</v>
       </c>
       <c r="L42" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>-0.16</v>
       </c>
       <c r="M42" s="4">
         <v>0</v>
@@ -3875,8 +3875,8 @@
       <c r="N42" s="4">
         <v>0</v>
       </c>
-      <c r="O42" s="10" t="s">
-        <v>47</v>
+      <c r="O42" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3884,13 +3884,13 @@
         <v>13</v>
       </c>
       <c r="B43" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C43" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D43" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.52986111111111101</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>34</v>
@@ -3899,22 +3899,22 @@
         <v>20</v>
       </c>
       <c r="G43" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>-0.155</v>
       </c>
       <c r="H43" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>-0.155</v>
       </c>
       <c r="I43" s="4">
         <v>1E-3</v>
       </c>
       <c r="J43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K43" s="4">
         <v>0</v>
       </c>
       <c r="L43" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M43" s="4">
         <v>0</v>
@@ -3922,8 +3922,8 @@
       <c r="N43" s="4">
         <v>0</v>
       </c>
-      <c r="O43" s="10" t="s">
-        <v>47</v>
+      <c r="O43" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3931,37 +3931,37 @@
         <v>13</v>
       </c>
       <c r="B44" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C44" s="3">
-        <v>0.47222222222222199</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D44" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G44" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H44" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I44" s="4">
         <v>1E-3</v>
       </c>
       <c r="J44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K44" s="4">
         <v>0</v>
       </c>
       <c r="L44" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M44" s="4">
         <v>0</v>
@@ -3969,8 +3969,8 @@
       <c r="N44" s="4">
         <v>0</v>
       </c>
-      <c r="O44" s="10" t="s">
-        <v>47</v>
+      <c r="O44" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3978,46 +3978,46 @@
         <v>13</v>
       </c>
       <c r="B45" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C45" s="3">
-        <v>0.45</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D45" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.52986111111111112</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G45" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H45" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I45" s="4">
         <v>1E-3</v>
       </c>
       <c r="J45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K45" s="4">
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <v>-0.9</v>
+        <v>0.22</v>
       </c>
       <c r="M45" s="4">
         <v>0</v>
       </c>
       <c r="N45" s="4">
-        <v>0</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -4025,25 +4025,25 @@
         <v>13</v>
       </c>
       <c r="B46" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C46" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D46" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.52986111111111101</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G46" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H46" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I46" s="4">
         <v>1E-3</v>
@@ -4054,8 +4054,8 @@
       <c r="K46" s="4">
         <v>0</v>
       </c>
-      <c r="L46" s="4">
-        <v>-0.9</v>
+      <c r="L46">
+        <v>-0.73</v>
       </c>
       <c r="M46" s="4">
         <v>0</v>
@@ -4063,8 +4063,8 @@
       <c r="N46" s="4">
         <v>0</v>
       </c>
-      <c r="O46" s="10" t="s">
-        <v>45</v>
+      <c r="O46" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -4075,22 +4075,22 @@
         <v>41957</v>
       </c>
       <c r="C47" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="D47" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.52986111111111101</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G47" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H47" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I47" s="4">
         <v>1E-3</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>-0.89</v>
+        <v>-0.73</v>
       </c>
       <c r="M47" s="4">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -4122,22 +4122,22 @@
         <v>41957</v>
       </c>
       <c r="C48" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D48" s="3">
-        <v>0.52986111111111101</v>
+        <v>0.57916666666666705</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G48" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H48" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I48" s="4">
         <v>1E-3</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>-0.89</v>
+        <v>-0.53</v>
       </c>
       <c r="M48" s="4">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -4216,43 +4216,43 @@
         <v>41957</v>
       </c>
       <c r="C50" s="3">
-        <v>0.594444444444444</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D50" s="3">
-        <v>0.63611111111111096</v>
+        <v>0.57916666666666705</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G50" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H50" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I50" s="4">
         <v>1E-3</v>
       </c>
       <c r="J50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K50" s="4">
         <v>0</v>
       </c>
-      <c r="L50">
-        <v>-0.89</v>
+      <c r="L50" s="4">
+        <v>-0.16</v>
       </c>
       <c r="M50" s="4">
         <v>0</v>
       </c>
       <c r="N50" s="4">
-        <v>0</v>
-      </c>
-      <c r="O50" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -4263,43 +4263,43 @@
         <v>41957</v>
       </c>
       <c r="C51" s="3">
-        <v>0.64305555555555605</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D51" s="3">
-        <v>0.68472222222222201</v>
+        <v>0.57916666666666705</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G51" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H51" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I51" s="4">
         <v>1E-3</v>
       </c>
       <c r="J51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K51" s="4">
         <v>0</v>
       </c>
-      <c r="L51">
-        <v>-0.89</v>
+      <c r="L51" s="4">
+        <v>0</v>
       </c>
       <c r="M51" s="4">
         <v>0</v>
       </c>
       <c r="N51" s="4">
-        <v>0</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -4307,37 +4307,37 @@
         <v>13</v>
       </c>
       <c r="B52" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C52" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D52" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.57916666666666672</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G52" s="4">
-        <v>-0.155</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H52" s="4">
-        <v>-0.155</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I52" s="4">
         <v>1E-3</v>
       </c>
       <c r="J52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K52" s="4">
         <v>0</v>
       </c>
       <c r="L52" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M52" s="4">
         <v>0</v>
@@ -4345,8 +4345,8 @@
       <c r="N52" s="4">
         <v>0</v>
       </c>
-      <c r="O52" s="10" t="s">
-        <v>45</v>
+      <c r="O52" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -4354,46 +4354,46 @@
         <v>13</v>
       </c>
       <c r="B53" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C53" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D53" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.57916666666666672</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G53" s="4">
-        <v>-0.155</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H53" s="4">
-        <v>-0.155</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I53" s="4">
         <v>1E-3</v>
       </c>
       <c r="J53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K53" s="4">
         <v>0</v>
       </c>
       <c r="L53" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>0.22</v>
       </c>
       <c r="M53" s="4">
         <v>0</v>
       </c>
       <c r="N53" s="4">
-        <v>0</v>
-      </c>
-      <c r="O53" s="10" t="s">
-        <v>45</v>
+        <v>1</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -4401,19 +4401,19 @@
         <v>13</v>
       </c>
       <c r="B54" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C54" s="3">
-        <v>0.47222222222222199</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D54" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.57916666666666705</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G54" s="4">
         <v>-0.155</v>
@@ -4430,17 +4430,17 @@
       <c r="K54" s="4">
         <v>0</v>
       </c>
-      <c r="L54" s="4">
-        <v>-7.9000000000000001E-2</v>
+      <c r="L54">
+        <v>-0.73</v>
       </c>
       <c r="M54" s="4">
         <v>0</v>
       </c>
       <c r="N54" s="4">
-        <v>1</v>
-      </c>
-      <c r="O54" s="10" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -4448,13 +4448,13 @@
         <v>13</v>
       </c>
       <c r="B55" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C55" s="3">
-        <v>0.45</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="D55" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.57916666666666705</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>34</v>
@@ -4477,17 +4477,17 @@
       <c r="K55" s="4">
         <v>0</v>
       </c>
-      <c r="L55" s="4">
-        <v>-0.74</v>
+      <c r="L55">
+        <v>-0.73</v>
       </c>
       <c r="M55" s="4">
         <v>0</v>
       </c>
       <c r="N55" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -4495,25 +4495,25 @@
         <v>13</v>
       </c>
       <c r="B56" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C56" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D56" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.63611111111111096</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G56" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H56" s="4">
-        <v>-0.38500000000000001</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I56" s="4">
         <v>1E-3</v>
@@ -4524,8 +4524,8 @@
       <c r="K56" s="4">
         <v>0</v>
       </c>
-      <c r="L56" s="4">
-        <v>-0.74</v>
+      <c r="L56">
+        <v>-0.53</v>
       </c>
       <c r="M56" s="4">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -4542,37 +4542,37 @@
         <v>13</v>
       </c>
       <c r="B57" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C57" s="3">
-        <v>0.45</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D57" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.63611111111111096</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G57" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="H57" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="I57" s="4">
         <v>1E-3</v>
       </c>
       <c r="J57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K57" s="4">
         <v>0</v>
       </c>
-      <c r="L57" s="4">
-        <v>-0.16</v>
+      <c r="L57">
+        <v>-0.89</v>
       </c>
       <c r="M57" s="4">
         <v>0</v>
@@ -4580,8 +4580,8 @@
       <c r="N57" s="4">
         <v>0</v>
       </c>
-      <c r="O57" s="8" t="s">
-        <v>44</v>
+      <c r="O57" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -4589,13 +4589,13 @@
         <v>13</v>
       </c>
       <c r="B58" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C58" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D58" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.63611111111111096</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>34</v>
@@ -4639,22 +4639,22 @@
         <v>41957</v>
       </c>
       <c r="C59" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D59" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.63611111111111096</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G59" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H59" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I59" s="4">
         <v>1E-3</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="4">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="M59" s="4">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4686,34 +4686,34 @@
         <v>41957</v>
       </c>
       <c r="C60" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D60" s="3">
-        <v>0.52986111111111101</v>
+        <v>0.63611111111111096</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G60" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H60" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I60" s="4">
         <v>1E-3</v>
       </c>
       <c r="J60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K60" s="4">
         <v>0</v>
       </c>
-      <c r="L60" s="4">
-        <v>-0.16</v>
+      <c r="L60">
+        <v>-0.73</v>
       </c>
       <c r="M60" s="4">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -4733,43 +4733,43 @@
         <v>41957</v>
       </c>
       <c r="C61" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.594444444444444</v>
       </c>
       <c r="D61" s="3">
-        <v>0.57916666666666705</v>
+        <v>0.63611111111111096</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G61" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H61" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I61" s="4">
         <v>1E-3</v>
       </c>
       <c r="J61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K61" s="4">
         <v>0</v>
       </c>
-      <c r="L61" s="4">
-        <v>-0.16</v>
+      <c r="L61">
+        <v>-0.73</v>
       </c>
       <c r="M61" s="4">
         <v>0</v>
       </c>
       <c r="N61" s="4">
-        <v>1</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -4780,22 +4780,22 @@
         <v>41957</v>
       </c>
       <c r="C62" s="3">
-        <v>0.594444444444444</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="D62" s="3">
-        <v>0.63611111111111096</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G62" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H62" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I62" s="4">
         <v>1E-3</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="4">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="M62" s="4">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4827,22 +4827,22 @@
         <v>41957</v>
       </c>
       <c r="C63" s="3">
-        <v>0.64305555555555605</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="D63" s="3">
-        <v>0.68472222222222201</v>
+        <v>0.63611111111111118</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G63" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H63" s="4">
-        <v>-0.22500000000000001</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I63" s="4">
         <v>1E-3</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="4">
-        <v>-0.16</v>
+        <v>0.22</v>
       </c>
       <c r="M63" s="4">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4871,37 +4871,37 @@
         <v>13</v>
       </c>
       <c r="B64" s="2">
-        <v>41961</v>
+        <v>41957</v>
       </c>
       <c r="C64" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="D64" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G64" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="H64" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.32500000000000001</v>
       </c>
       <c r="I64" s="4">
         <v>1E-3</v>
       </c>
       <c r="J64" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K64" s="4">
         <v>0</v>
       </c>
       <c r="L64" s="4">
-        <v>-0.66500000000000004</v>
+        <v>0</v>
       </c>
       <c r="M64" s="4">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4918,37 +4918,37 @@
         <v>13</v>
       </c>
       <c r="B65" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C65" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.6430555555555556</v>
       </c>
       <c r="D65" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.68472222222222223</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G65" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="H65" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.28500000000000003</v>
       </c>
       <c r="I65" s="4">
         <v>1E-3</v>
       </c>
       <c r="J65" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K65" s="4">
         <v>0</v>
       </c>
       <c r="L65" s="4">
-        <v>-0.66500000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="M65" s="4">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4965,13 +4965,13 @@
         <v>13</v>
       </c>
       <c r="B66" s="2">
-        <v>41963</v>
+        <v>41957</v>
       </c>
       <c r="C66" s="3">
-        <v>0.47222222222222199</v>
+        <v>0.64305555555555605</v>
       </c>
       <c r="D66" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.68472222222222201</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>34</v>
@@ -4980,22 +4980,22 @@
         <v>22</v>
       </c>
       <c r="G66" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="H66" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="I66" s="4">
         <v>1E-3</v>
       </c>
       <c r="J66" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
       </c>
-      <c r="L66" s="4">
-        <v>-0.66500000000000004</v>
+      <c r="L66">
+        <v>-0.53</v>
       </c>
       <c r="M66" s="4">
         <v>0</v>
@@ -5003,8 +5003,8 @@
       <c r="N66" s="4">
         <v>0</v>
       </c>
-      <c r="O66" s="8" t="s">
-        <v>44</v>
+      <c r="O66" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -5012,37 +5012,37 @@
         <v>13</v>
       </c>
       <c r="B67" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C67" s="3">
-        <v>0.45</v>
+        <v>0.64305555555555605</v>
       </c>
       <c r="D67" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.68472222222222201</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G67" s="4">
-        <v>-0.155</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="H67" s="4">
-        <v>-0.155</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="I67" s="4">
         <v>1E-3</v>
       </c>
       <c r="J67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K67" s="4">
         <v>0</v>
       </c>
-      <c r="L67" s="4">
-        <v>0</v>
+      <c r="L67">
+        <v>-0.89</v>
       </c>
       <c r="M67" s="4">
         <v>0</v>
@@ -5050,8 +5050,8 @@
       <c r="N67" s="4">
         <v>0</v>
       </c>
-      <c r="O67" s="8" t="s">
-        <v>46</v>
+      <c r="O67" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -5059,25 +5059,25 @@
         <v>13</v>
       </c>
       <c r="B68" s="2">
-        <v>41956</v>
+        <v>41957</v>
       </c>
       <c r="C68" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.64305555555555605</v>
       </c>
       <c r="D68" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.68472222222222201</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G68" s="4">
-        <v>-0.155</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="H68" s="4">
-        <v>-0.155</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="I68" s="4">
         <v>1E-3</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="4">
-        <v>0</v>
+        <v>-0.16</v>
       </c>
       <c r="M68" s="4">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -5109,10 +5109,10 @@
         <v>41957</v>
       </c>
       <c r="C69" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.64305555555555605</v>
       </c>
       <c r="D69" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.68472222222222201</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>34</v>
@@ -5156,16 +5156,16 @@
         <v>41957</v>
       </c>
       <c r="C70" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.64305555555555605</v>
       </c>
       <c r="D70" s="3">
-        <v>0.52986111111111101</v>
+        <v>0.68472222222222201</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G70" s="4">
         <v>-0.155</v>
@@ -5177,13 +5177,13 @@
         <v>1E-3</v>
       </c>
       <c r="J70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K70" s="4">
         <v>0</v>
       </c>
-      <c r="L70" s="4">
-        <v>0</v>
+      <c r="L70">
+        <v>-0.73</v>
       </c>
       <c r="M70" s="4">
         <v>0</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -5203,43 +5203,43 @@
         <v>41957</v>
       </c>
       <c r="C71" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.64305555555555605</v>
       </c>
       <c r="D71" s="3">
-        <v>0.57916666666666705</v>
+        <v>0.68472222222222201</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G71" s="4">
-        <v>-0.155</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="H71" s="4">
-        <v>-0.155</v>
+        <v>-0.38500000000000001</v>
       </c>
       <c r="I71" s="4">
         <v>1E-3</v>
       </c>
       <c r="J71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K71" s="4">
         <v>0</v>
       </c>
-      <c r="L71" s="4">
-        <v>0</v>
+      <c r="L71">
+        <v>-0.73</v>
       </c>
       <c r="M71" s="4">
         <v>0</v>
       </c>
       <c r="N71" s="4">
-        <v>1</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -5247,13 +5247,13 @@
         <v>13</v>
       </c>
       <c r="B72" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C72" s="3">
-        <v>0.594444444444444</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D72" s="3">
-        <v>0.63611111111111096</v>
+        <v>0.52430555555555602</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>34</v>
@@ -5262,22 +5262,22 @@
         <v>20</v>
       </c>
       <c r="G72" s="4">
-        <v>-0.155</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="H72" s="4">
-        <v>-0.155</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="I72" s="4">
         <v>1E-3</v>
       </c>
       <c r="J72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K72" s="4">
         <v>0</v>
       </c>
       <c r="L72" s="4">
-        <v>0</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M72" s="4">
         <v>0</v>
@@ -5285,8 +5285,8 @@
       <c r="N72" s="4">
         <v>0</v>
       </c>
-      <c r="O72" s="8" t="s">
-        <v>46</v>
+      <c r="O72" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -5294,19 +5294,19 @@
         <v>13</v>
       </c>
       <c r="B73" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C73" s="3">
-        <v>0.64305555555555605</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D73" s="3">
-        <v>0.68472222222222201</v>
+        <v>0.52430555555555602</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G73" s="4">
         <v>-0.155</v>
@@ -5318,13 +5318,13 @@
         <v>1E-3</v>
       </c>
       <c r="J73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K73" s="4">
         <v>0</v>
       </c>
       <c r="L73" s="4">
-        <v>0</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M73" s="4">
         <v>0</v>
@@ -5332,8 +5332,8 @@
       <c r="N73" s="4">
         <v>0</v>
       </c>
-      <c r="O73" s="8" t="s">
-        <v>46</v>
+      <c r="O73" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -5353,13 +5353,13 @@
         <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G74" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H74" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I74" s="4">
         <v>1E-3</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="4">
-        <v>-0.92900000000000005</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="M74" s="4">
         <v>0</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -5388,13 +5388,13 @@
         <v>13</v>
       </c>
       <c r="B75" s="2">
-        <v>41963</v>
+        <v>41961</v>
       </c>
       <c r="C75" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D75" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.52430555555555602</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>34</v>
@@ -5435,25 +5435,25 @@
         <v>13</v>
       </c>
       <c r="B76" s="2">
-        <v>41963</v>
+        <v>41961</v>
       </c>
       <c r="C76" s="3">
-        <v>0.47222222222222199</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D76" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.52430555555555602</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G76" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H76" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I76" s="4">
         <v>1E-3</v>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="4">
-        <v>-0.92900000000000005</v>
+        <v>-0.496</v>
       </c>
       <c r="M76" s="4">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -5482,37 +5482,37 @@
         <v>13</v>
       </c>
       <c r="B77" s="2">
-        <v>41956</v>
+        <v>41961</v>
       </c>
       <c r="C77" s="3">
-        <v>0.45</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D77" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.52430555555555602</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G77" s="4">
-        <v>-0.32500000000000001</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H77" s="4">
-        <v>-0.32500000000000001</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I77" s="4">
         <v>1E-3</v>
       </c>
       <c r="J77" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K77" s="4">
         <v>0</v>
       </c>
       <c r="L77" s="4">
-        <v>0</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="M77" s="4">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -5529,37 +5529,37 @@
         <v>13</v>
       </c>
       <c r="B78" s="2">
-        <v>41956</v>
+        <v>41961</v>
       </c>
       <c r="C78" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.27083333333333298</v>
       </c>
       <c r="D78" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.52430555555555602</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G78" s="4">
-        <v>-0.32500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="H78" s="4">
-        <v>-0.32500000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I78" s="4">
         <v>1E-3</v>
       </c>
       <c r="J78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K78" s="4">
         <v>0</v>
       </c>
       <c r="L78" s="4">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="M78" s="4">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -5576,34 +5576,34 @@
         <v>13</v>
       </c>
       <c r="B79" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C79" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D79" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G79" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="H79" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I79" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>14</v>
-      </c>
-      <c r="K79" s="4">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K79" s="5">
+        <v>-0.05</v>
       </c>
       <c r="L79" s="4">
         <v>0</v>
@@ -5614,8 +5614,8 @@
       <c r="N79" s="4">
         <v>0</v>
       </c>
-      <c r="O79" s="8" t="s">
-        <v>40</v>
+      <c r="O79" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -5623,34 +5623,34 @@
         <v>13</v>
       </c>
       <c r="B80" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C80" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D80" s="3">
-        <v>0.52986111111111112</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G80" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="H80" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I80" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>14</v>
       </c>
-      <c r="K80" s="4">
-        <v>0</v>
+      <c r="K80" s="5">
+        <v>-0.125</v>
       </c>
       <c r="L80" s="4">
         <v>0</v>
@@ -5661,8 +5661,8 @@
       <c r="N80" s="4">
         <v>0</v>
       </c>
-      <c r="O80" s="8" t="s">
-        <v>40</v>
+      <c r="O80" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -5670,37 +5670,37 @@
         <v>13</v>
       </c>
       <c r="B81" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C81" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D81" s="3">
-        <v>0.57916666666666672</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G81" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="H81" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I81" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J81" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K81" s="4">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="L81" s="4">
-        <v>0</v>
+        <v>-0.73</v>
       </c>
       <c r="M81" s="4">
         <v>0</v>
@@ -5708,8 +5708,8 @@
       <c r="N81" s="4">
         <v>0</v>
       </c>
-      <c r="O81" s="8" t="s">
-        <v>40</v>
+      <c r="O81" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5717,37 +5717,37 @@
         <v>13</v>
       </c>
       <c r="B82" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C82" s="3">
-        <v>0.59444444444444444</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D82" s="3">
-        <v>0.63611111111111118</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G82" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="H82" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I82" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J82" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="K82" s="4">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L82" s="4">
-        <v>0</v>
+        <v>-0.73</v>
       </c>
       <c r="M82" s="4">
         <v>0</v>
@@ -5755,8 +5755,8 @@
       <c r="N82" s="4">
         <v>0</v>
       </c>
-      <c r="O82" s="8" t="s">
-        <v>40</v>
+      <c r="O82" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -5764,31 +5764,31 @@
         <v>13</v>
       </c>
       <c r="B83" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C83" s="3">
-        <v>0.6430555555555556</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D83" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G83" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="H83" s="4">
-        <v>-0.32500000000000001</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="I83" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J83" t="s">
-        <v>14</v>
+        <v>0.01</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0</v>
       </c>
       <c r="K83" s="4">
         <v>0</v>
@@ -5802,8 +5802,8 @@
       <c r="N83" s="4">
         <v>0</v>
       </c>
-      <c r="O83" s="8" t="s">
-        <v>40</v>
+      <c r="O83" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -5814,43 +5814,43 @@
         <v>41961</v>
       </c>
       <c r="C84" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D84" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G84" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="H84" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="I84" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J84" t="s">
-        <v>26</v>
+        <v>0.01</v>
+      </c>
+      <c r="J84" s="4">
+        <v>0</v>
       </c>
       <c r="K84" s="4">
         <v>0</v>
       </c>
       <c r="L84" s="4">
-        <v>-0.496</v>
+        <v>0</v>
       </c>
       <c r="M84" s="4">
         <v>0</v>
       </c>
       <c r="N84" s="4">
-        <v>0</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="O84" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -5858,37 +5858,37 @@
         <v>13</v>
       </c>
       <c r="B85" s="2">
-        <v>41963</v>
+        <v>41961</v>
       </c>
       <c r="C85" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D85" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G85" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H85" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="I85" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J85" t="s">
-        <v>26</v>
+        <v>0.01</v>
+      </c>
+      <c r="J85" s="4">
+        <v>0</v>
       </c>
       <c r="K85" s="4">
         <v>0</v>
       </c>
       <c r="L85" s="4">
-        <v>-0.496</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="M85" s="4">
         <v>0</v>
@@ -5896,8 +5896,8 @@
       <c r="N85" s="4">
         <v>0</v>
       </c>
-      <c r="O85" s="8" t="s">
-        <v>40</v>
+      <c r="O85" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -5905,37 +5905,37 @@
         <v>13</v>
       </c>
       <c r="B86" s="2">
-        <v>41963</v>
+        <v>41961</v>
       </c>
       <c r="C86" s="3">
-        <v>0.47222222222222199</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D86" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G86" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>1.7809999999999999</v>
       </c>
       <c r="H86" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>1.7809999999999999</v>
       </c>
       <c r="I86" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J86" t="s">
-        <v>26</v>
+        <v>0.01</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0</v>
       </c>
       <c r="K86" s="4">
         <v>0</v>
       </c>
       <c r="L86" s="4">
-        <v>-0.496</v>
+        <v>-0.73</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
@@ -5943,8 +5943,8 @@
       <c r="N86" s="4">
         <v>0</v>
       </c>
-      <c r="O86" s="8" t="s">
-        <v>40</v>
+      <c r="O86" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -5952,37 +5952,37 @@
         <v>13</v>
       </c>
       <c r="B87" s="2">
-        <v>41956</v>
+        <v>41961</v>
       </c>
       <c r="C87" s="3">
-        <v>0.45</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D87" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G87" s="4">
-        <v>-0.28500000000000003</v>
+        <v>0</v>
       </c>
       <c r="H87" s="4">
-        <v>-0.28500000000000003</v>
+        <v>0</v>
       </c>
       <c r="I87" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J87" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0</v>
       </c>
       <c r="K87" s="4">
         <v>0</v>
       </c>
       <c r="L87" s="4">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="M87" s="4">
         <v>0</v>
@@ -5990,8 +5990,8 @@
       <c r="N87" s="4">
         <v>0</v>
       </c>
-      <c r="O87" s="8" t="s">
-        <v>42</v>
+      <c r="O87" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -5999,37 +5999,37 @@
         <v>13</v>
       </c>
       <c r="B88" s="2">
-        <v>41956</v>
+        <v>41961</v>
       </c>
       <c r="C88" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D88" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G88" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.155</v>
       </c>
       <c r="H88" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.155</v>
       </c>
       <c r="I88" s="4">
         <v>1E-3</v>
       </c>
       <c r="J88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K88" s="4">
         <v>0</v>
       </c>
       <c r="L88" s="4">
-        <v>0.22</v>
+        <v>0.251</v>
       </c>
       <c r="M88" s="4">
         <v>0</v>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -6046,37 +6046,37 @@
         <v>13</v>
       </c>
       <c r="B89" s="2">
-        <v>41957</v>
+        <v>41961</v>
       </c>
       <c r="C89" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="D89" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G89" s="4">
-        <v>-0.28500000000000003</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H89" s="4">
-        <v>-0.28500000000000003</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="I89" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J89" t="s">
-        <v>14</v>
+        <v>0.01</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0</v>
       </c>
       <c r="K89" s="4">
         <v>0</v>
       </c>
       <c r="L89" s="4">
-        <v>0.22</v>
+        <v>-1.66</v>
       </c>
       <c r="M89" s="4">
         <v>0</v>
@@ -6084,8 +6084,8 @@
       <c r="N89" s="4">
         <v>1</v>
       </c>
-      <c r="O89" s="8" t="s">
-        <v>42</v>
+      <c r="O89" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -6093,46 +6093,46 @@
         <v>13</v>
       </c>
       <c r="B90" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C90" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D90" s="3">
-        <v>0.52986111111111112</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G90" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="H90" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="I90" s="4">
         <v>1E-3</v>
       </c>
       <c r="J90" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K90" s="4">
         <v>0</v>
       </c>
       <c r="L90" s="4">
-        <v>0.22</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M90" s="4">
         <v>0</v>
       </c>
       <c r="N90" s="4">
-        <v>1</v>
-      </c>
-      <c r="O90" s="8" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="O90" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -6140,46 +6140,46 @@
         <v>13</v>
       </c>
       <c r="B91" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C91" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D91" s="3">
-        <v>0.57916666666666672</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G91" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.155</v>
       </c>
       <c r="H91" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-0.155</v>
       </c>
       <c r="I91" s="4">
         <v>1E-3</v>
       </c>
       <c r="J91" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K91" s="4">
         <v>0</v>
       </c>
       <c r="L91" s="4">
-        <v>0.22</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M91" s="4">
         <v>0</v>
       </c>
       <c r="N91" s="4">
-        <v>1</v>
-      </c>
-      <c r="O91" s="8" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="O91" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -6187,37 +6187,37 @@
         <v>13</v>
       </c>
       <c r="B92" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C92" s="3">
-        <v>0.59444444444444444</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D92" s="3">
-        <v>0.63611111111111118</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G92" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H92" s="4">
-        <v>-0.28500000000000003</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I92" s="4">
         <v>1E-3</v>
       </c>
       <c r="J92" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K92" s="4">
         <v>0</v>
       </c>
       <c r="L92" s="4">
-        <v>0.22</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="M92" s="4">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -6234,37 +6234,37 @@
         <v>13</v>
       </c>
       <c r="B93" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C93" s="3">
-        <v>0.6430555555555556</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D93" s="3">
-        <v>0.68472222222222223</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G93" s="4">
-        <v>-0.28500000000000003</v>
+        <v>8.0999999999999989E-2</v>
       </c>
       <c r="H93" s="4">
-        <v>-0.28500000000000003</v>
+        <v>8.0999999999999989E-2</v>
       </c>
       <c r="I93" s="4">
         <v>1E-3</v>
       </c>
       <c r="J93" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K93" s="4">
         <v>0</v>
       </c>
       <c r="L93" s="4">
-        <v>0.22</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="M93" s="4">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -6281,19 +6281,19 @@
         <v>13</v>
       </c>
       <c r="B94" s="2">
-        <v>41961</v>
+        <v>41963</v>
       </c>
       <c r="C94" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D94" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G94" s="4">
         <v>-9.7000000000000003E-2</v>
@@ -6311,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="L94" s="4">
-        <v>-0.92900000000000005</v>
+        <v>-0.496</v>
       </c>
       <c r="M94" s="4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -6378,34 +6378,34 @@
         <v>41963</v>
       </c>
       <c r="C96" s="3">
-        <v>0.47222222222222199</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D96" s="3">
-        <v>0.51388888888888895</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G96" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="H96" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.155</v>
       </c>
       <c r="I96" s="4">
         <v>1E-3</v>
       </c>
       <c r="J96" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K96" s="4">
         <v>0</v>
       </c>
       <c r="L96" s="4">
-        <v>-0.92900000000000005</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="M96" s="4">
         <v>0</v>
@@ -6414,7 +6414,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -6422,19 +6422,19 @@
         <v>13</v>
       </c>
       <c r="B97" s="2">
-        <v>41956</v>
+        <v>41963</v>
       </c>
       <c r="C97" s="3">
-        <v>0.45</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D97" s="3">
-        <v>0.4916666666666667</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G97" s="4">
         <v>-0.155</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="L97" s="4">
-        <v>-0.74</v>
+        <v>0.251</v>
       </c>
       <c r="M97" s="4">
         <v>0</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -6469,37 +6469,37 @@
         <v>13</v>
       </c>
       <c r="B98" s="2">
-        <v>41956</v>
+        <v>41963</v>
       </c>
       <c r="C98" s="3">
-        <v>0.50069444444444444</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D98" s="3">
-        <v>0.54236111111111118</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G98" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="H98" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="I98" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J98" t="s">
+        <v>0</v>
+      </c>
+      <c r="J98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K98" s="4">
-        <v>0</v>
+      <c r="K98" s="5">
+        <v>-0.05</v>
       </c>
       <c r="L98" s="4">
-        <v>-0.74</v>
+        <v>0</v>
       </c>
       <c r="M98" s="4">
         <v>0</v>
@@ -6507,8 +6507,8 @@
       <c r="N98" s="4">
         <v>0</v>
       </c>
-      <c r="O98" s="8" t="s">
-        <v>43</v>
+      <c r="O98" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -6516,37 +6516,37 @@
         <v>13</v>
       </c>
       <c r="B99" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C99" s="3">
-        <v>0.43958333333333338</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D99" s="3">
-        <v>0.48125000000000001</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G99" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="H99" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="I99" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J99" t="s">
-        <v>16</v>
-      </c>
-      <c r="K99" s="4">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>-0.73</v>
+        <v>0</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="5">
+        <v>-0.125</v>
+      </c>
+      <c r="L99" s="4">
+        <v>0</v>
       </c>
       <c r="M99" s="4">
         <v>0</v>
@@ -6554,8 +6554,8 @@
       <c r="N99" s="4">
         <v>0</v>
       </c>
-      <c r="O99" s="8" t="s">
-        <v>43</v>
+      <c r="O99" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -6563,36 +6563,36 @@
         <v>13</v>
       </c>
       <c r="B100" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C100" s="3">
-        <v>0.48819444444444443</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D100" s="3">
-        <v>0.52986111111111101</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G100" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="H100" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="I100" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J100" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K100" s="4">
-        <v>0</v>
-      </c>
-      <c r="L100">
+        <v>-0.2</v>
+      </c>
+      <c r="L100" s="5">
         <v>-0.73</v>
       </c>
       <c r="M100" s="4">
@@ -6601,8 +6601,8 @@
       <c r="N100" s="4">
         <v>0</v>
       </c>
-      <c r="O100" s="8" t="s">
-        <v>43</v>
+      <c r="O100" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -6610,36 +6610,36 @@
         <v>13</v>
       </c>
       <c r="B101" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C101" s="3">
-        <v>0.53749999999999998</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D101" s="3">
-        <v>0.57916666666666705</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G101" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="H101" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="I101" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J101" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="K101" s="4">
-        <v>0</v>
-      </c>
-      <c r="L101">
+        <v>-0.05</v>
+      </c>
+      <c r="L101" s="5">
         <v>-0.73</v>
       </c>
       <c r="M101" s="4">
@@ -6648,8 +6648,8 @@
       <c r="N101" s="4">
         <v>0</v>
       </c>
-      <c r="O101" s="8" t="s">
-        <v>43</v>
+      <c r="O101" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -6657,37 +6657,37 @@
         <v>13</v>
       </c>
       <c r="B102" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C102" s="3">
-        <v>0.594444444444444</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D102" s="3">
-        <v>0.63611111111111096</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G102" s="4">
-        <v>-0.155</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="H102" s="4">
-        <v>-0.155</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="I102" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J102" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0</v>
       </c>
       <c r="K102" s="4">
         <v>0</v>
       </c>
-      <c r="L102">
-        <v>-0.73</v>
+      <c r="L102" s="4">
+        <v>0</v>
       </c>
       <c r="M102" s="4">
         <v>0</v>
@@ -6695,8 +6695,8 @@
       <c r="N102" s="4">
         <v>0</v>
       </c>
-      <c r="O102" s="8" t="s">
-        <v>43</v>
+      <c r="O102" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -6704,46 +6704,46 @@
         <v>13</v>
       </c>
       <c r="B103" s="2">
-        <v>41957</v>
+        <v>41963</v>
       </c>
       <c r="C103" s="3">
-        <v>0.64305555555555605</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D103" s="3">
-        <v>0.68472222222222201</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G103" s="4">
-        <v>-0.155</v>
+        <v>2.5950000000000002</v>
       </c>
       <c r="H103" s="4">
-        <v>-0.155</v>
+        <v>2.569</v>
       </c>
       <c r="I103" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J103" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J103" s="4">
+        <v>0</v>
       </c>
       <c r="K103" s="4">
         <v>0</v>
       </c>
-      <c r="L103">
-        <v>-0.73</v>
+      <c r="L103" s="4">
+        <v>0</v>
       </c>
       <c r="M103" s="4">
         <v>0</v>
       </c>
       <c r="N103" s="4">
-        <v>0</v>
-      </c>
-      <c r="O103" s="8" t="s">
-        <v>43</v>
+        <v>1</v>
+      </c>
+      <c r="O103" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -6751,37 +6751,37 @@
         <v>13</v>
       </c>
       <c r="B104" s="2">
-        <v>41961</v>
+        <v>41963</v>
       </c>
       <c r="C104" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D104" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G104" s="4">
-        <v>-0.155</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="H104" s="4">
-        <v>-0.155</v>
+        <v>0.46</v>
       </c>
       <c r="I104" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J104" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J104" s="4">
+        <v>0</v>
       </c>
       <c r="K104" s="4">
         <v>0</v>
       </c>
       <c r="L104" s="4">
-        <v>8.2000000000000003E-2</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="M104" s="4">
         <v>0</v>
@@ -6789,8 +6789,8 @@
       <c r="N104" s="4">
         <v>0</v>
       </c>
-      <c r="O104" s="8" t="s">
-        <v>43</v>
+      <c r="O104" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -6801,34 +6801,34 @@
         <v>41963</v>
       </c>
       <c r="C105" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D105" s="3">
-        <v>0.46527777777777773</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G105" s="4">
-        <v>-0.155</v>
+        <v>1.776</v>
       </c>
       <c r="H105" s="4">
-        <v>-0.155</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="I105" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J105" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J105" s="4">
+        <v>0</v>
       </c>
       <c r="K105" s="4">
         <v>0</v>
       </c>
       <c r="L105" s="4">
-        <v>8.2000000000000003E-2</v>
+        <v>-0.748</v>
       </c>
       <c r="M105" s="4">
         <v>0</v>
@@ -6836,8 +6836,8 @@
       <c r="N105" s="4">
         <v>0</v>
       </c>
-      <c r="O105" s="8" t="s">
-        <v>43</v>
+      <c r="O105" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -6848,427 +6848,51 @@
         <v>41963</v>
       </c>
       <c r="C106" s="3">
-        <v>0.47222222222222227</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D106" s="3">
         <v>0.51388888888888895</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G106" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="H106" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="I106" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J106" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="J106" s="4">
+        <v>0</v>
       </c>
       <c r="K106" s="4">
         <v>0</v>
       </c>
       <c r="L106" s="4">
-        <v>8.2000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="M106" s="4">
         <v>0</v>
       </c>
       <c r="N106" s="4">
-        <v>1</v>
-      </c>
-      <c r="O106" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" s="2">
-        <v>41957</v>
-      </c>
-      <c r="C107" s="3">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="D107" s="3">
-        <v>0.48125000000000001</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" s="4">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="H107" s="4">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="I107" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J107" t="s">
-        <v>16</v>
-      </c>
-      <c r="K107" s="4">
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <v>-0.73</v>
-      </c>
-      <c r="M107" s="4">
-        <v>0</v>
-      </c>
-      <c r="N107" s="4">
-        <v>0</v>
-      </c>
-      <c r="O107" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="2">
-        <v>41957</v>
-      </c>
-      <c r="C108" s="3">
-        <v>0.48819444444444443</v>
-      </c>
-      <c r="D108" s="3">
-        <v>0.52986111111111101</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" s="4">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="H108" s="4">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="I108" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J108" t="s">
-        <v>16</v>
-      </c>
-      <c r="K108" s="4">
-        <v>0</v>
-      </c>
-      <c r="L108">
-        <v>-0.73</v>
-      </c>
-      <c r="M108" s="4">
-        <v>0</v>
-      </c>
-      <c r="N108" s="4">
-        <v>0</v>
-      </c>
-      <c r="O108" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="2">
-        <v>41957</v>
-      </c>
-      <c r="C109" s="3">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="D109" s="3">
-        <v>0.57916666666666705</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" s="4">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="H109" s="4">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="I109" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J109" t="s">
-        <v>16</v>
-      </c>
-      <c r="K109" s="4">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <v>-0.73</v>
-      </c>
-      <c r="M109" s="4">
-        <v>0</v>
-      </c>
-      <c r="N109" s="4">
-        <v>1</v>
-      </c>
-      <c r="O109" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="2">
-        <v>41957</v>
-      </c>
-      <c r="C110" s="3">
-        <v>0.594444444444444</v>
-      </c>
-      <c r="D110" s="3">
-        <v>0.63611111111111096</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" s="4">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="H110" s="4">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J110" t="s">
-        <v>16</v>
-      </c>
-      <c r="K110" s="4">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>-0.73</v>
-      </c>
-      <c r="M110" s="4">
-        <v>0</v>
-      </c>
-      <c r="N110" s="4">
-        <v>0</v>
-      </c>
-      <c r="O110" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="2">
-        <v>41957</v>
-      </c>
-      <c r="C111" s="3">
-        <v>0.64305555555555605</v>
-      </c>
-      <c r="D111" s="3">
-        <v>0.68472222222222201</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" s="4">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="H111" s="4">
-        <v>-0.38500000000000001</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J111" t="s">
-        <v>16</v>
-      </c>
-      <c r="K111" s="4">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>-0.73</v>
-      </c>
-      <c r="M111" s="4">
-        <v>0</v>
-      </c>
-      <c r="N111" s="4">
-        <v>0</v>
-      </c>
-      <c r="O111" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="2">
-        <v>41961</v>
-      </c>
-      <c r="C112" s="3">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D112" s="3">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="H112" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="I112" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J112" t="s">
-        <v>16</v>
-      </c>
-      <c r="K112" s="4">
-        <v>0</v>
-      </c>
-      <c r="L112" s="4">
-        <v>0.251</v>
-      </c>
-      <c r="M112" s="4">
-        <v>0</v>
-      </c>
-      <c r="N112" s="4">
-        <v>0</v>
-      </c>
-      <c r="O112" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C113" s="3">
-        <v>0.42361111111111099</v>
-      </c>
-      <c r="D113" s="3">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="H113" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="I113" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J113" t="s">
-        <v>16</v>
-      </c>
-      <c r="K113" s="4">
-        <v>0</v>
-      </c>
-      <c r="L113" s="4">
-        <v>0.251</v>
-      </c>
-      <c r="M113" s="4">
-        <v>0</v>
-      </c>
-      <c r="N113" s="4">
-        <v>0</v>
-      </c>
-      <c r="O113" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C114" s="3">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="D114" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="H114" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="I114" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J114" t="s">
-        <v>16</v>
-      </c>
-      <c r="K114" s="4">
-        <v>0</v>
-      </c>
-      <c r="L114" s="4">
-        <v>0.251</v>
-      </c>
-      <c r="M114" s="4">
-        <v>0</v>
-      </c>
-      <c r="N114" s="4">
-        <v>1</v>
-      </c>
-      <c r="O114" s="8" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="O106" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:O114">
+    <sortCondition ref="B2:B114"/>
+    <sortCondition ref="C2:C114"/>
     <sortCondition ref="E2:E114"/>
     <sortCondition ref="O2:O114"/>
-    <sortCondition ref="B2:B114"/>
-    <sortCondition ref="C2:C114"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Metadata/InstrumentMetadata_Jericoacoara.xlsx
+++ b/Metadata/InstrumentMetadata_Jericoacoara.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="37320" windowHeight="10860" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="53">
   <si>
     <t>Site</t>
   </si>
@@ -1883,12 +1883,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C106" sqref="C106"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6887,6 +6887,382 @@
         <v>52</v>
       </c>
     </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="4">
+        <v>-0.155</v>
+      </c>
+      <c r="H107" s="4">
+        <v>-0.155</v>
+      </c>
+      <c r="I107" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J107" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+      <c r="L107" s="4">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="M107" s="4">
+        <v>0</v>
+      </c>
+      <c r="N107" s="4">
+        <v>1</v>
+      </c>
+      <c r="O107" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="4">
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="H108" s="4">
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="I108" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J108" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0</v>
+      </c>
+      <c r="L108" s="4">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="M108" s="4">
+        <v>0</v>
+      </c>
+      <c r="N108" s="4">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" t="s">
+        <v>21</v>
+      </c>
+      <c r="G109" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="H109" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="I109" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J109" t="s">
+        <v>26</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
+      </c>
+      <c r="L109" s="4">
+        <v>-0.496</v>
+      </c>
+      <c r="M109" s="4">
+        <v>0</v>
+      </c>
+      <c r="N109" s="4">
+        <v>0</v>
+      </c>
+      <c r="O109" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C110" s="3">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="H110" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J110" t="s">
+        <v>26</v>
+      </c>
+      <c r="K110" s="4">
+        <v>0</v>
+      </c>
+      <c r="L110" s="4">
+        <v>-0.66500000000000004</v>
+      </c>
+      <c r="M110" s="4">
+        <v>0</v>
+      </c>
+      <c r="N110" s="4">
+        <v>0</v>
+      </c>
+      <c r="O110" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C111" s="3">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="H111" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="I111" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J111" t="s">
+        <v>26</v>
+      </c>
+      <c r="K111" s="4">
+        <v>0</v>
+      </c>
+      <c r="L111" s="4">
+        <v>-0.92900000000000005</v>
+      </c>
+      <c r="M111" s="4">
+        <v>0</v>
+      </c>
+      <c r="N111" s="4">
+        <v>0</v>
+      </c>
+      <c r="O111" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C112" s="3">
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="4">
+        <v>8.0999999999999989E-2</v>
+      </c>
+      <c r="H112" s="4">
+        <v>8.0999999999999989E-2</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J112" t="s">
+        <v>26</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+      <c r="L112" s="4">
+        <v>-0.92900000000000005</v>
+      </c>
+      <c r="M112" s="4">
+        <v>0</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0</v>
+      </c>
+      <c r="O112" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C113" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="4">
+        <v>-0.155</v>
+      </c>
+      <c r="H113" s="4">
+        <v>-0.155</v>
+      </c>
+      <c r="I113" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J113" t="s">
+        <v>16</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0</v>
+      </c>
+      <c r="L113" s="4">
+        <v>0.251</v>
+      </c>
+      <c r="M113" s="4">
+        <v>0</v>
+      </c>
+      <c r="N113" s="4">
+        <v>1</v>
+      </c>
+      <c r="O113" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C114" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" t="s">
+        <v>18</v>
+      </c>
+      <c r="G114" s="4">
+        <v>-0.155</v>
+      </c>
+      <c r="H114" s="4">
+        <v>-0.155</v>
+      </c>
+      <c r="I114" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J114" t="s">
+        <v>16</v>
+      </c>
+      <c r="K114" s="4">
+        <v>0</v>
+      </c>
+      <c r="L114" s="4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="M114" s="4">
+        <v>0</v>
+      </c>
+      <c r="N114" s="4">
+        <v>1</v>
+      </c>
+      <c r="O114" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:O114">
     <sortCondition ref="B2:B114"/>

--- a/Metadata/InstrumentMetadata_Jericoacoara.xlsx
+++ b/Metadata/InstrumentMetadata_Jericoacoara.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raleighmartin/GitHub/Jericoacoara2014/Metadata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13760" tabRatio="500"/>
+    <workbookView xWindow="27280" yWindow="4100" windowWidth="25120" windowHeight="13760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="53">
   <si>
     <t>Site</t>
   </si>
@@ -1558,6 +1566,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1883,15 +1896,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -1905,7 +1918,7 @@
     <col min="15" max="15" width="10.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1965,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1999,7 +2012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2046,7 +2059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -2093,7 +2106,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -2140,7 +2153,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -2187,7 +2200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -2234,7 +2247,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -2281,7 +2294,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2328,7 +2341,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -2375,7 +2388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -2422,7 +2435,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2469,7 +2482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -2516,7 +2529,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2563,7 +2576,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -2657,7 +2670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -2704,7 +2717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -2751,7 +2764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -2798,7 +2811,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -2845,7 +2858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -2892,7 +2905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2939,7 +2952,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -2986,7 +2999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -3033,7 +3046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -3080,7 +3093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
@@ -3127,7 +3140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
@@ -3174,7 +3187,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
@@ -3221,7 +3234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -3268,7 +3281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>13</v>
       </c>
@@ -3315,7 +3328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -3362,7 +3375,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
@@ -3409,7 +3422,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>13</v>
       </c>
@@ -3456,7 +3469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
@@ -3503,7 +3516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>13</v>
       </c>
@@ -3550,7 +3563,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>13</v>
       </c>
@@ -3597,7 +3610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
@@ -3644,7 +3657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>13</v>
       </c>
@@ -3691,7 +3704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>13</v>
       </c>
@@ -3738,7 +3751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>13</v>
       </c>
@@ -3785,7 +3798,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>13</v>
       </c>
@@ -3832,7 +3845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>13</v>
       </c>
@@ -3879,7 +3892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
@@ -3926,7 +3939,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>13</v>
       </c>
@@ -3973,7 +3986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>13</v>
       </c>
@@ -4020,7 +4033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>13</v>
       </c>
@@ -4067,7 +4080,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>13</v>
       </c>
@@ -4114,7 +4127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>13</v>
       </c>
@@ -4161,7 +4174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>13</v>
       </c>
@@ -4208,7 +4221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>13</v>
       </c>
@@ -4255,7 +4268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>13</v>
       </c>
@@ -4302,7 +4315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>13</v>
       </c>
@@ -4349,7 +4362,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
@@ -4396,7 +4409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>13</v>
       </c>
@@ -4443,7 +4456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>13</v>
       </c>
@@ -4490,7 +4503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>13</v>
       </c>
@@ -4537,7 +4550,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>13</v>
       </c>
@@ -4584,7 +4597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>13</v>
       </c>
@@ -4631,7 +4644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>13</v>
       </c>
@@ -4678,7 +4691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>13</v>
       </c>
@@ -4725,7 +4738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>13</v>
       </c>
@@ -4772,7 +4785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
@@ -4819,7 +4832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>13</v>
       </c>
@@ -4866,7 +4879,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>13</v>
       </c>
@@ -4913,7 +4926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>13</v>
       </c>
@@ -4960,7 +4973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>13</v>
       </c>
@@ -5007,7 +5020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -5054,7 +5067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
@@ -5101,7 +5114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>13</v>
       </c>
@@ -5148,7 +5161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>13</v>
       </c>
@@ -5195,7 +5208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>13</v>
       </c>
@@ -5242,7 +5255,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>13</v>
       </c>
@@ -5250,34 +5263,34 @@
         <v>41961</v>
       </c>
       <c r="C72" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D72" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G72" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>0</v>
       </c>
       <c r="H72" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>0</v>
       </c>
       <c r="I72" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>16</v>
       </c>
-      <c r="K72" s="4">
-        <v>0</v>
+      <c r="K72" s="5">
+        <v>-0.05</v>
       </c>
       <c r="L72" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M72" s="4">
         <v>0</v>
@@ -5286,10 +5299,10 @@
         <v>0</v>
       </c>
       <c r="O72" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>13</v>
       </c>
@@ -5297,34 +5310,34 @@
         <v>41961</v>
       </c>
       <c r="C73" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D73" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G73" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="H73" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="I73" s="4">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>16</v>
-      </c>
-      <c r="K73" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K73" s="5">
+        <v>-0.125</v>
       </c>
       <c r="L73" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M73" s="4">
         <v>0</v>
@@ -5333,10 +5346,10 @@
         <v>0</v>
       </c>
       <c r="O73" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>13</v>
       </c>
@@ -5344,34 +5357,34 @@
         <v>41961</v>
       </c>
       <c r="C74" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D74" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G74" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H74" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I74" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J74" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K74" s="4">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="L74" s="4">
-        <v>-0.66500000000000004</v>
+        <v>-0.73</v>
       </c>
       <c r="M74" s="4">
         <v>0</v>
@@ -5379,11 +5392,11 @@
       <c r="N74" s="4">
         <v>0</v>
       </c>
-      <c r="O74" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+      <c r="O74" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>13</v>
       </c>
@@ -5391,34 +5404,34 @@
         <v>41961</v>
       </c>
       <c r="C75" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D75" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G75" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>0</v>
       </c>
       <c r="H75" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>0</v>
       </c>
       <c r="I75" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J75" t="s">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K75" s="4">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="L75" s="4">
-        <v>-0.92900000000000005</v>
+        <v>-0.73</v>
       </c>
       <c r="M75" s="4">
         <v>0</v>
@@ -5426,11 +5439,11 @@
       <c r="N75" s="4">
         <v>0</v>
       </c>
-      <c r="O75" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+      <c r="O75" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>13</v>
       </c>
@@ -5438,34 +5451,34 @@
         <v>41961</v>
       </c>
       <c r="C76" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D76" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G76" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="H76" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="I76" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J76" t="s">
-        <v>26</v>
+        <v>0.01</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0</v>
       </c>
       <c r="K76" s="4">
         <v>0</v>
       </c>
       <c r="L76" s="4">
-        <v>-0.496</v>
+        <v>0</v>
       </c>
       <c r="M76" s="4">
         <v>0</v>
@@ -5473,11 +5486,11 @@
       <c r="N76" s="4">
         <v>0</v>
       </c>
-      <c r="O76" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+      <c r="O76" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>13</v>
       </c>
@@ -5485,46 +5498,46 @@
         <v>41961</v>
       </c>
       <c r="C77" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D77" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.47569444444444442</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G77" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="H77" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="I77" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J77" t="s">
-        <v>26</v>
+        <v>0.01</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0</v>
       </c>
       <c r="K77" s="4">
         <v>0</v>
       </c>
       <c r="L77" s="4">
-        <v>-0.92900000000000005</v>
+        <v>0</v>
       </c>
       <c r="M77" s="4">
         <v>0</v>
       </c>
       <c r="N77" s="4">
-        <v>0</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="O77" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>13</v>
       </c>
@@ -5532,34 +5545,34 @@
         <v>41961</v>
       </c>
       <c r="C78" s="3">
-        <v>0.27083333333333298</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="D78" s="3">
-        <v>0.52430555555555602</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G78" s="4">
-        <v>-0.155</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H78" s="4">
-        <v>-0.155</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="I78" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J78" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
       </c>
       <c r="K78" s="4">
         <v>0</v>
       </c>
       <c r="L78" s="4">
-        <v>8.2000000000000003E-2</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="M78" s="4">
         <v>0</v>
@@ -5567,11 +5580,11 @@
       <c r="N78" s="4">
         <v>0</v>
       </c>
-      <c r="O78" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+      <c r="O78" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>13</v>
       </c>
@@ -5585,28 +5598,28 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G79" s="4">
-        <v>0</v>
+        <v>1.7809999999999999</v>
       </c>
       <c r="H79" s="4">
-        <v>0</v>
+        <v>1.7809999999999999</v>
       </c>
       <c r="I79" s="4">
-        <v>0</v>
-      </c>
-      <c r="J79" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" s="5">
-        <v>-0.05</v>
+        <v>0.01</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <v>0</v>
       </c>
       <c r="L79" s="4">
-        <v>0</v>
+        <v>-0.73</v>
       </c>
       <c r="M79" s="4">
         <v>0</v>
@@ -5615,10 +5628,10 @@
         <v>0</v>
       </c>
       <c r="O79" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>13</v>
       </c>
@@ -5632,10 +5645,10 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G80" s="4">
         <v>0</v>
@@ -5646,11 +5659,11 @@
       <c r="I80" s="4">
         <v>0</v>
       </c>
-      <c r="J80" t="s">
-        <v>14</v>
-      </c>
-      <c r="K80" s="5">
-        <v>-0.125</v>
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <v>0</v>
       </c>
       <c r="L80" s="4">
         <v>0</v>
@@ -5661,11 +5674,11 @@
       <c r="N80" s="4">
         <v>0</v>
       </c>
-      <c r="O80" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+      <c r="O80" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>13</v>
       </c>
@@ -5673,269 +5686,269 @@
         <v>41961</v>
       </c>
       <c r="C81" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="D81" s="3">
         <v>0.52430555555555558</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G81" s="4">
-        <v>0</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H81" s="4">
-        <v>0</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="I81" s="4">
-        <v>0</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>25</v>
+        <v>0.01</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
       </c>
       <c r="K81" s="4">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="L81" s="4">
-        <v>-0.73</v>
+        <v>-1.66</v>
       </c>
       <c r="M81" s="4">
         <v>0</v>
       </c>
       <c r="N81" s="4">
-        <v>0</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="O81" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B82" s="2">
-        <v>41961</v>
+        <v>41963</v>
       </c>
       <c r="C82" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D82" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="4">
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="H82" s="4">
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="I82" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J82" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0</v>
+      </c>
+      <c r="L82" s="4">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="M82" s="4">
+        <v>0</v>
+      </c>
+      <c r="N82" s="4">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.42361111111111099</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.46527777777777801</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="4">
+        <v>-0.155</v>
+      </c>
+      <c r="H83" s="4">
+        <v>-0.155</v>
+      </c>
+      <c r="I83" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>16</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0</v>
+      </c>
+      <c r="L83" s="4">
+        <v>-7.9000000000000001E-2</v>
+      </c>
+      <c r="M83" s="4">
+        <v>0</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0</v>
+      </c>
+      <c r="O83" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.42361111111111099</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.46527777777777801</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="H84" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="I84" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J84" t="s">
         <v>26</v>
       </c>
-      <c r="G82" s="4">
-        <v>0</v>
-      </c>
-      <c r="H82" s="4">
-        <v>0</v>
-      </c>
-      <c r="I82" s="4">
-        <v>0</v>
-      </c>
-      <c r="J82" s="4" t="s">
+      <c r="K84" s="4">
+        <v>0</v>
+      </c>
+      <c r="L84" s="4">
+        <v>-0.66500000000000004</v>
+      </c>
+      <c r="M84" s="4">
+        <v>0</v>
+      </c>
+      <c r="N84" s="4">
+        <v>0</v>
+      </c>
+      <c r="O84" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.42361111111111099</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.46527777777777801</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="4">
+        <v>8.0999999999999989E-2</v>
+      </c>
+      <c r="H85" s="4">
+        <v>8.0999999999999989E-2</v>
+      </c>
+      <c r="I85" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J85" t="s">
         <v>26</v>
       </c>
-      <c r="K82" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="L82" s="4">
-        <v>-0.73</v>
-      </c>
-      <c r="M82" s="4">
-        <v>0</v>
-      </c>
-      <c r="N82" s="4">
-        <v>0</v>
-      </c>
-      <c r="O82" s="9" t="s">
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>-0.92900000000000005</v>
+      </c>
+      <c r="M85" s="4">
+        <v>0</v>
+      </c>
+      <c r="N85" s="4">
+        <v>0</v>
+      </c>
+      <c r="O85" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.42361111111111099</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.46527777777777801</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G86" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="H86" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="I86" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J86" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="2">
-        <v>41961</v>
-      </c>
-      <c r="C83" s="3">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F83" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="4">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="H83" s="4">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="I83" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J83" s="4">
-        <v>0</v>
-      </c>
-      <c r="K83" s="4">
-        <v>0</v>
-      </c>
-      <c r="L83" s="4">
-        <v>0</v>
-      </c>
-      <c r="M83" s="4">
-        <v>0</v>
-      </c>
-      <c r="N83" s="4">
-        <v>0</v>
-      </c>
-      <c r="O83" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="2">
-        <v>41961</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F84" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="4">
-        <v>2.5750000000000002</v>
-      </c>
-      <c r="H84" s="4">
-        <v>2.5750000000000002</v>
-      </c>
-      <c r="I84" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J84" s="4">
-        <v>0</v>
-      </c>
-      <c r="K84" s="4">
-        <v>0</v>
-      </c>
-      <c r="L84" s="4">
-        <v>0</v>
-      </c>
-      <c r="M84" s="4">
-        <v>0</v>
-      </c>
-      <c r="N84" s="4">
-        <v>1</v>
-      </c>
-      <c r="O84" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="2">
-        <v>41961</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F85" t="s">
-        <v>3</v>
-      </c>
-      <c r="G85" s="4">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="H85" s="4">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="I85" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J85" s="4">
-        <v>0</v>
-      </c>
-      <c r="K85" s="4">
-        <v>0</v>
-      </c>
-      <c r="L85" s="4">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="M85" s="4">
-        <v>0</v>
-      </c>
-      <c r="N85" s="4">
-        <v>0</v>
-      </c>
-      <c r="O85" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" s="2">
-        <v>41961</v>
-      </c>
-      <c r="C86" s="3">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="4">
-        <v>1.7809999999999999</v>
-      </c>
-      <c r="H86" s="4">
-        <v>1.7809999999999999</v>
-      </c>
-      <c r="I86" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J86" s="4">
-        <v>0</v>
-      </c>
       <c r="K86" s="4">
         <v>0</v>
       </c>
       <c r="L86" s="4">
-        <v>-0.73</v>
+        <v>-0.496</v>
       </c>
       <c r="M86" s="4">
         <v>0</v>
@@ -5943,46 +5956,46 @@
       <c r="N86" s="4">
         <v>0</v>
       </c>
-      <c r="O86" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="O86" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B87" s="2">
-        <v>41961</v>
+        <v>41963</v>
       </c>
       <c r="C87" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D87" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.46527777777777801</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G87" s="4">
-        <v>0</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H87" s="4">
-        <v>0</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I87" s="4">
-        <v>0</v>
-      </c>
-      <c r="J87" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J87" t="s">
+        <v>26</v>
       </c>
       <c r="K87" s="4">
         <v>0</v>
       </c>
       <c r="L87" s="4">
-        <v>0</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="M87" s="4">
         <v>0</v>
@@ -5990,28 +6003,28 @@
       <c r="N87" s="4">
         <v>0</v>
       </c>
-      <c r="O87" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="O87" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B88" s="2">
-        <v>41961</v>
+        <v>41963</v>
       </c>
       <c r="C88" s="3">
-        <v>0.27083333333333331</v>
+        <v>0.42361111111111099</v>
       </c>
       <c r="D88" s="3">
-        <v>0.52430555555555558</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G88" s="4">
         <v>-0.155</v>
@@ -6029,66 +6042,66 @@
         <v>0</v>
       </c>
       <c r="L88" s="4">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="M88" s="4">
+        <v>0</v>
+      </c>
+      <c r="N88" s="4">
+        <v>0</v>
+      </c>
+      <c r="O88" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="2">
+        <v>41963</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.42361111111111099</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="4">
+        <v>-0.155</v>
+      </c>
+      <c r="H89" s="4">
+        <v>-0.155</v>
+      </c>
+      <c r="I89" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J89" t="s">
+        <v>16</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0</v>
+      </c>
+      <c r="L89" s="4">
         <v>0.251</v>
       </c>
-      <c r="M88" s="4">
-        <v>0</v>
-      </c>
-      <c r="N88" s="4">
-        <v>0</v>
-      </c>
-      <c r="O88" s="8" t="s">
+      <c r="M89" s="4">
+        <v>0</v>
+      </c>
+      <c r="N89" s="4">
+        <v>0</v>
+      </c>
+      <c r="O89" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="2">
-        <v>41961</v>
-      </c>
-      <c r="C89" s="3">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="D89" s="3">
-        <v>0.52430555555555558</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="4">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="H89" s="4">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="I89" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J89" s="4">
-        <v>0</v>
-      </c>
-      <c r="K89" s="4">
-        <v>0</v>
-      </c>
-      <c r="L89" s="4">
-        <v>-1.66</v>
-      </c>
-      <c r="M89" s="4">
-        <v>0</v>
-      </c>
-      <c r="N89" s="4">
-        <v>1</v>
-      </c>
-      <c r="O89" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>13</v>
       </c>
@@ -6096,34 +6109,34 @@
         <v>41963</v>
       </c>
       <c r="C90" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D90" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G90" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>0</v>
       </c>
       <c r="H90" s="4">
-        <v>-4.0000000000000036E-3</v>
+        <v>0</v>
       </c>
       <c r="I90" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J90" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K90" s="4">
-        <v>0</v>
+      <c r="K90" s="5">
+        <v>-0.05</v>
       </c>
       <c r="L90" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M90" s="4">
         <v>0</v>
@@ -6132,10 +6145,10 @@
         <v>0</v>
       </c>
       <c r="O90" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>13</v>
       </c>
@@ -6143,34 +6156,34 @@
         <v>41963</v>
       </c>
       <c r="C91" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D91" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G91" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="H91" s="4">
-        <v>-0.155</v>
+        <v>0</v>
       </c>
       <c r="I91" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J91" t="s">
-        <v>16</v>
-      </c>
-      <c r="K91" s="4">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K91" s="5">
+        <v>-0.125</v>
       </c>
       <c r="L91" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M91" s="4">
         <v>0</v>
@@ -6179,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="O91" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>13</v>
       </c>
@@ -6190,34 +6203,34 @@
         <v>41963</v>
       </c>
       <c r="C92" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D92" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G92" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H92" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="I92" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J92" t="s">
-        <v>26</v>
+        <v>0</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="K92" s="4">
-        <v>0</v>
-      </c>
-      <c r="L92" s="4">
-        <v>-0.66500000000000004</v>
+        <v>-0.2</v>
+      </c>
+      <c r="L92" s="5">
+        <v>-0.73</v>
       </c>
       <c r="M92" s="4">
         <v>0</v>
@@ -6225,11 +6238,11 @@
       <c r="N92" s="4">
         <v>0</v>
       </c>
-      <c r="O92" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="O92" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>13</v>
       </c>
@@ -6237,34 +6250,34 @@
         <v>41963</v>
       </c>
       <c r="C93" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D93" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G93" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>0</v>
       </c>
       <c r="H93" s="4">
-        <v>8.0999999999999989E-2</v>
+        <v>0</v>
       </c>
       <c r="I93" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J93" t="s">
+        <v>0</v>
+      </c>
+      <c r="J93" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K93" s="4">
-        <v>0</v>
-      </c>
-      <c r="L93" s="4">
-        <v>-0.92900000000000005</v>
+        <v>-0.05</v>
+      </c>
+      <c r="L93" s="5">
+        <v>-0.73</v>
       </c>
       <c r="M93" s="4">
         <v>0</v>
@@ -6272,11 +6285,11 @@
       <c r="N93" s="4">
         <v>0</v>
       </c>
-      <c r="O93" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+      <c r="O93" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>13</v>
       </c>
@@ -6284,34 +6297,34 @@
         <v>41963</v>
       </c>
       <c r="C94" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D94" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G94" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="H94" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="I94" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J94" t="s">
-        <v>26</v>
+        <v>0.01</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0</v>
       </c>
       <c r="K94" s="4">
         <v>0</v>
       </c>
       <c r="L94" s="4">
-        <v>-0.496</v>
+        <v>0</v>
       </c>
       <c r="M94" s="4">
         <v>0</v>
@@ -6319,11 +6332,11 @@
       <c r="N94" s="4">
         <v>0</v>
       </c>
-      <c r="O94" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="O94" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>13</v>
       </c>
@@ -6331,46 +6344,46 @@
         <v>41963</v>
       </c>
       <c r="C95" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D95" s="3">
-        <v>0.46527777777777801</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G95" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>2.5950000000000002</v>
       </c>
       <c r="H95" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>2.569</v>
       </c>
       <c r="I95" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J95" t="s">
-        <v>26</v>
+        <v>0.01</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
       </c>
       <c r="K95" s="4">
         <v>0</v>
       </c>
       <c r="L95" s="4">
-        <v>-0.92900000000000005</v>
+        <v>0</v>
       </c>
       <c r="M95" s="4">
         <v>0</v>
       </c>
       <c r="N95" s="4">
-        <v>0</v>
-      </c>
-      <c r="O95" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="O95" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>13</v>
       </c>
@@ -6378,34 +6391,34 @@
         <v>41963</v>
       </c>
       <c r="C96" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D96" s="3">
-        <v>0.46527777777777773</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G96" s="4">
-        <v>-0.155</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="H96" s="4">
-        <v>-0.155</v>
+        <v>0.46</v>
       </c>
       <c r="I96" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J96" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0</v>
       </c>
       <c r="K96" s="4">
         <v>0</v>
       </c>
       <c r="L96" s="4">
-        <v>8.2000000000000003E-2</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="M96" s="4">
         <v>0</v>
@@ -6413,11 +6426,11 @@
       <c r="N96" s="4">
         <v>0</v>
       </c>
-      <c r="O96" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="O96" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>13</v>
       </c>
@@ -6425,34 +6438,34 @@
         <v>41963</v>
       </c>
       <c r="C97" s="3">
-        <v>0.42361111111111099</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D97" s="3">
-        <v>0.46527777777777773</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G97" s="4">
-        <v>-0.155</v>
+        <v>1.776</v>
       </c>
       <c r="H97" s="4">
-        <v>-0.155</v>
+        <v>1.7370000000000001</v>
       </c>
       <c r="I97" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J97" t="s">
-        <v>16</v>
+        <v>0.01</v>
+      </c>
+      <c r="J97" s="4">
+        <v>0</v>
       </c>
       <c r="K97" s="4">
         <v>0</v>
       </c>
       <c r="L97" s="4">
-        <v>0.251</v>
+        <v>-0.748</v>
       </c>
       <c r="M97" s="4">
         <v>0</v>
@@ -6460,11 +6473,11 @@
       <c r="N97" s="4">
         <v>0</v>
       </c>
-      <c r="O97" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+      <c r="O97" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>13</v>
       </c>
@@ -6478,10 +6491,10 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G98" s="4">
         <v>0</v>
@@ -6492,11 +6505,11 @@
       <c r="I98" s="4">
         <v>0</v>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K98" s="5">
-        <v>-0.05</v>
+      <c r="J98" s="4">
+        <v>0</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0</v>
       </c>
       <c r="L98" s="4">
         <v>0</v>
@@ -6507,11 +6520,11 @@
       <c r="N98" s="4">
         <v>0</v>
       </c>
-      <c r="O98" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="O98" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>13</v>
       </c>
@@ -6519,46 +6532,46 @@
         <v>41963</v>
       </c>
       <c r="C99" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="D99" s="3">
         <v>0.51388888888888895</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G99" s="4">
-        <v>0</v>
+        <v>-0.155</v>
       </c>
       <c r="H99" s="4">
-        <v>0</v>
+        <v>-0.155</v>
       </c>
       <c r="I99" s="4">
-        <v>0</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K99" s="5">
-        <v>-0.125</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" s="4">
+        <v>0</v>
       </c>
       <c r="L99" s="4">
-        <v>0</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M99" s="4">
         <v>0</v>
       </c>
       <c r="N99" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>13</v>
       </c>
@@ -6566,34 +6579,34 @@
         <v>41963</v>
       </c>
       <c r="C100" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="D100" s="3">
         <v>0.51388888888888895</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G100" s="4">
-        <v>0</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="H100" s="4">
-        <v>0</v>
+        <v>-4.0000000000000036E-3</v>
       </c>
       <c r="I100" s="4">
-        <v>0</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>25</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>16</v>
       </c>
       <c r="K100" s="4">
-        <v>-0.2</v>
-      </c>
-      <c r="L100" s="5">
-        <v>-0.73</v>
+        <v>0</v>
+      </c>
+      <c r="L100" s="4">
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="M100" s="4">
         <v>0</v>
@@ -6601,11 +6614,11 @@
       <c r="N100" s="4">
         <v>0</v>
       </c>
-      <c r="O100" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+      <c r="O100" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>13</v>
       </c>
@@ -6613,34 +6626,34 @@
         <v>41963</v>
       </c>
       <c r="C101" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="D101" s="3">
         <v>0.51388888888888895</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="H101" s="4">
+        <v>-9.7000000000000003E-2</v>
+      </c>
+      <c r="I101" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="J101" t="s">
         <v>26</v>
       </c>
-      <c r="G101" s="4">
-        <v>0</v>
-      </c>
-      <c r="H101" s="4">
-        <v>0</v>
-      </c>
-      <c r="I101" s="4">
-        <v>0</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="K101" s="4">
-        <v>-0.05</v>
-      </c>
-      <c r="L101" s="5">
-        <v>-0.73</v>
+        <v>0</v>
+      </c>
+      <c r="L101" s="4">
+        <v>-0.496</v>
       </c>
       <c r="M101" s="4">
         <v>0</v>
@@ -6648,11 +6661,11 @@
       <c r="N101" s="4">
         <v>0</v>
       </c>
-      <c r="O101" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+      <c r="O101" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>13</v>
       </c>
@@ -6660,34 +6673,34 @@
         <v>41963</v>
       </c>
       <c r="C102" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="D102" s="3">
         <v>0.51388888888888895</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G102" s="4">
-        <v>0.98099999999999998</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H102" s="4">
-        <v>0.95499999999999996</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I102" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J102" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J102" t="s">
+        <v>26</v>
       </c>
       <c r="K102" s="4">
         <v>0</v>
       </c>
       <c r="L102" s="4">
-        <v>0</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="M102" s="4">
         <v>0</v>
@@ -6695,11 +6708,11 @@
       <c r="N102" s="4">
         <v>0</v>
       </c>
-      <c r="O102" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+      <c r="O102" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>13</v>
       </c>
@@ -6707,46 +6720,46 @@
         <v>41963</v>
       </c>
       <c r="C103" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="D103" s="3">
         <v>0.51388888888888895</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G103" s="4">
-        <v>2.5950000000000002</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="H103" s="4">
-        <v>2.569</v>
+        <v>-9.7000000000000003E-2</v>
       </c>
       <c r="I103" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J103" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>26</v>
       </c>
       <c r="K103" s="4">
         <v>0</v>
       </c>
       <c r="L103" s="4">
-        <v>0</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="M103" s="4">
         <v>0</v>
       </c>
       <c r="N103" s="4">
-        <v>1</v>
-      </c>
-      <c r="O103" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="O103" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>13</v>
       </c>
@@ -6754,34 +6767,34 @@
         <v>41963</v>
       </c>
       <c r="C104" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="D104" s="3">
         <v>0.51388888888888895</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G104" s="4">
-        <v>0.45400000000000001</v>
+        <v>8.0999999999999989E-2</v>
       </c>
       <c r="H104" s="4">
-        <v>0.46</v>
+        <v>8.0999999999999989E-2</v>
       </c>
       <c r="I104" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J104" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>26</v>
       </c>
       <c r="K104" s="4">
         <v>0</v>
       </c>
       <c r="L104" s="4">
-        <v>0.97399999999999998</v>
+        <v>-0.92900000000000005</v>
       </c>
       <c r="M104" s="4">
         <v>0</v>
@@ -6789,11 +6802,11 @@
       <c r="N104" s="4">
         <v>0</v>
       </c>
-      <c r="O104" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="O104" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>13</v>
       </c>
@@ -6801,46 +6814,46 @@
         <v>41963</v>
       </c>
       <c r="C105" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="D105" s="3">
         <v>0.51388888888888895</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G105" s="4">
-        <v>1.776</v>
+        <v>-0.155</v>
       </c>
       <c r="H105" s="4">
-        <v>1.7370000000000001</v>
+        <v>-0.155</v>
       </c>
       <c r="I105" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="J105" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J105" t="s">
+        <v>16</v>
       </c>
       <c r="K105" s="4">
         <v>0</v>
       </c>
       <c r="L105" s="4">
-        <v>-0.748</v>
+        <v>0.251</v>
       </c>
       <c r="M105" s="4">
         <v>0</v>
       </c>
       <c r="N105" s="4">
-        <v>0</v>
-      </c>
-      <c r="O105" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="O105" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>13</v>
       </c>
@@ -6848,418 +6861,42 @@
         <v>41963</v>
       </c>
       <c r="C106" s="3">
-        <v>0.4236111111111111</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="D106" s="3">
         <v>0.51388888888888895</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G106" s="4">
-        <v>0</v>
+        <v>-0.155</v>
       </c>
       <c r="H106" s="4">
-        <v>0</v>
+        <v>-0.155</v>
       </c>
       <c r="I106" s="4">
-        <v>0</v>
-      </c>
-      <c r="J106" s="4">
-        <v>0</v>
+        <v>1E-3</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
       </c>
       <c r="K106" s="4">
         <v>0</v>
       </c>
       <c r="L106" s="4">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="M106" s="4">
         <v>0</v>
       </c>
       <c r="N106" s="4">
-        <v>0</v>
-      </c>
-      <c r="O106" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C107" s="3">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="D107" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="H107" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="I107" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J107" t="s">
-        <v>16</v>
-      </c>
-      <c r="K107" s="4">
-        <v>0</v>
-      </c>
-      <c r="L107" s="4">
-        <v>-7.9000000000000001E-2</v>
-      </c>
-      <c r="M107" s="4">
-        <v>0</v>
-      </c>
-      <c r="N107" s="4">
         <v>1</v>
       </c>
-      <c r="O107" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="A108" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C108" s="3">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="D108" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F108" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" s="4">
-        <v>-4.0000000000000036E-3</v>
-      </c>
-      <c r="H108" s="4">
-        <v>-4.0000000000000036E-3</v>
-      </c>
-      <c r="I108" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J108" t="s">
-        <v>16</v>
-      </c>
-      <c r="K108" s="4">
-        <v>0</v>
-      </c>
-      <c r="L108" s="4">
-        <v>-7.9000000000000001E-2</v>
-      </c>
-      <c r="M108" s="4">
-        <v>0</v>
-      </c>
-      <c r="N108" s="4">
-        <v>0</v>
-      </c>
-      <c r="O108" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="A109" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C109" s="3">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="D109" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" s="4">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="H109" s="4">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="I109" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J109" t="s">
-        <v>26</v>
-      </c>
-      <c r="K109" s="4">
-        <v>0</v>
-      </c>
-      <c r="L109" s="4">
-        <v>-0.496</v>
-      </c>
-      <c r="M109" s="4">
-        <v>0</v>
-      </c>
-      <c r="N109" s="4">
-        <v>0</v>
-      </c>
-      <c r="O109" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
-      <c r="A110" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C110" s="3">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="D110" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" s="4">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="H110" s="4">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J110" t="s">
-        <v>26</v>
-      </c>
-      <c r="K110" s="4">
-        <v>0</v>
-      </c>
-      <c r="L110" s="4">
-        <v>-0.66500000000000004</v>
-      </c>
-      <c r="M110" s="4">
-        <v>0</v>
-      </c>
-      <c r="N110" s="4">
-        <v>0</v>
-      </c>
-      <c r="O110" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
-      <c r="A111" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C111" s="3">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="D111" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" s="4">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="H111" s="4">
-        <v>-9.7000000000000003E-2</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J111" t="s">
-        <v>26</v>
-      </c>
-      <c r="K111" s="4">
-        <v>0</v>
-      </c>
-      <c r="L111" s="4">
-        <v>-0.92900000000000005</v>
-      </c>
-      <c r="M111" s="4">
-        <v>0</v>
-      </c>
-      <c r="N111" s="4">
-        <v>0</v>
-      </c>
-      <c r="O111" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C112" s="3">
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="D112" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" s="4">
-        <v>8.0999999999999989E-2</v>
-      </c>
-      <c r="H112" s="4">
-        <v>8.0999999999999989E-2</v>
-      </c>
-      <c r="I112" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J112" t="s">
-        <v>26</v>
-      </c>
-      <c r="K112" s="4">
-        <v>0</v>
-      </c>
-      <c r="L112" s="4">
-        <v>-0.92900000000000005</v>
-      </c>
-      <c r="M112" s="4">
-        <v>0</v>
-      </c>
-      <c r="N112" s="4">
-        <v>0</v>
-      </c>
-      <c r="O112" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C113" s="3">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="D113" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="H113" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="I113" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J113" t="s">
-        <v>16</v>
-      </c>
-      <c r="K113" s="4">
-        <v>0</v>
-      </c>
-      <c r="L113" s="4">
-        <v>0.251</v>
-      </c>
-      <c r="M113" s="4">
-        <v>0</v>
-      </c>
-      <c r="N113" s="4">
-        <v>1</v>
-      </c>
-      <c r="O113" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="2">
-        <v>41963</v>
-      </c>
-      <c r="C114" s="3">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="D114" s="3">
-        <v>0.51388888888888895</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="H114" s="4">
-        <v>-0.155</v>
-      </c>
-      <c r="I114" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="J114" t="s">
-        <v>16</v>
-      </c>
-      <c r="K114" s="4">
-        <v>0</v>
-      </c>
-      <c r="L114" s="4">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="M114" s="4">
-        <v>0</v>
-      </c>
-      <c r="N114" s="4">
-        <v>1</v>
-      </c>
-      <c r="O114" s="8" t="s">
+      <c r="O106" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7272,10 +6909,5 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>